--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2290ACB5-51C6-4223-83C1-14C2D346D033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B287FC-C75E-4DEC-88F4-E11066D3838C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="260">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -767,10 +767,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT * FROM Customer WHERE customer_id = 9999;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>조회 결과 없음</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -811,10 +807,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT * FROM QnA WHERE customer_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 고객의 상담 내역이 모두 조회된다.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -835,10 +827,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT * FROM QnA WHERE employee_id = 10;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 직원이 응대한 상담 내역만 조회됨</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1013,6 +1001,57 @@
   </si>
   <si>
     <t>Invalid column type 오류 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최은우</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Code: 1048. Column 'email' cannot be null</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Customer WHERE customer_id = 500001;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 1명이 주문 1개하는 데이터로 들어가서 테스트 케이스 불가</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 데이터 다 안 들어가서 테스트 케이스 불가</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저 필요</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM QnA WHERE customer_id = 187436;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 고객의 상담 내역이 모두 조회됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 고객의 상담 내역(12개)이 모두 조회됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM QnA WHERE employee_id = 980093;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 직원이 응대한 상담 내역(7개)만 조회됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태별 상담 접수 건수가 올바르게 집계되었으나 실행시간 초과</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.203 sec</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1140,7 +1179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1227,6 +1266,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1286,7 +1331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1347,6 +1392,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,8 +1404,8 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1691,9 +1739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1711,10 +1759,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -1741,13 +1789,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1842,10 +1890,10 @@
         <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1"/>
@@ -1853,23 +1901,23 @@
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="1"/>
@@ -1877,23 +1925,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1"/>
@@ -1901,23 +1949,23 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="1"/>
@@ -1925,23 +1973,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="1"/>
@@ -1949,23 +1997,23 @@
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -1973,23 +2021,23 @@
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="1"/>
@@ -1997,23 +2045,23 @@
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="1"/>
@@ -2021,23 +2069,23 @@
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="1"/>
@@ -2045,23 +2093,23 @@
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="1"/>
@@ -2069,7 +2117,7 @@
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -2078,16 +2126,16 @@
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
@@ -2116,13 +2164,13 @@
         <v>50</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -2149,13 +2197,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -2176,19 +2224,19 @@
         <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -2215,13 +2263,13 @@
         <v>67</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -2248,13 +2296,13 @@
         <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -2941,10 +2989,445 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7259E29-CB5E-4A5C-B0A7-CEF0D44896B8}">
-  <dimension ref="A2:J4"/>
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
+    <col min="9" max="9" width="36.75" customWidth="1"/>
+    <col min="10" max="10" width="32.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="18">
+        <v>45728.804861111108</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="18">
+        <v>45728.809027777781</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="18">
+        <v>45728.819444444445</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="H6" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="18">
+        <v>45728.819444444445</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="H8" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="18">
+        <v>45728.845138888886</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="18">
+        <v>45728.848611111112</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="18">
+        <v>45728.853472222225</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" s="18">
+        <v>45728.859027777777</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="18">
+        <v>45728.859027777777</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:A17">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2969,16 +3452,16 @@
         <v>160</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>162</v>
@@ -2990,11 +3473,11 @@
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3004,13 +3487,13 @@
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>60</v>
@@ -3019,16 +3502,14 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
@@ -3036,13 +3517,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>59</v>
@@ -3051,136 +3532,14 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
-  <dimension ref="A2:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="18">
-        <v>45727.839618055557</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="18">
-        <v>45727.854421296295</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3190,13 +3549,13 @@
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E5" s="18">
         <v>45727.906504629631</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>59</v>
@@ -3205,27 +3564,27 @@
         <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E6" s="18">
         <v>45727.901932870373</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>59</v>
@@ -3234,12 +3593,12 @@
         <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>247</v>
+      <c r="A7" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
@@ -3248,13 +3607,13 @@
         <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E7" s="18">
         <v>45727.907893518517</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>59</v>
@@ -3263,12 +3622,12 @@
         <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>248</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>94</v>
@@ -3277,22 +3636,22 @@
         <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E8" s="18">
         <v>45727.910671296297</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -3342,16 +3701,16 @@
         <v>160</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>162</v>
@@ -3363,7 +3722,7 @@
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
@@ -3377,13 +3736,13 @@
         <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E3" s="18">
         <v>45727.870196759257</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>59</v>
@@ -3392,10 +3751,10 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
@@ -3409,13 +3768,13 @@
         <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E4" s="18">
         <v>45727.879166666666</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>60</v>
@@ -3424,10 +3783,10 @@
         <v>130</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
@@ -3441,7 +3800,7 @@
         <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E5" s="18">
         <v>45727.884097222224</v>
@@ -3466,13 +3825,13 @@
         <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E6" s="18">
         <v>45727.881423611114</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>59</v>
@@ -3481,7 +3840,7 @@
         <v>131</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3495,13 +3854,13 @@
         <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E7" s="18">
         <v>45727.882337962961</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>59</v>
@@ -3510,7 +3869,7 @@
         <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3524,13 +3883,13 @@
         <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E8" s="18">
         <v>45727.883425925924</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>59</v>
@@ -3539,7 +3898,7 @@
         <v>135</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3553,13 +3912,13 @@
         <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E9" s="18">
         <v>45727.884097222224</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>59</v>
@@ -3568,7 +3927,7 @@
         <v>138</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3577,7 +3936,7 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E10" s="18">
         <v>45727.884097222224</v>
@@ -3590,7 +3949,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E11" s="18">
         <v>45728.884097222224</v>
@@ -3602,7 +3961,7 @@
         <v>149</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E12" s="18">
         <v>45729.884097222224</v>
@@ -3611,10 +3970,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E13" s="18">
         <v>45730.884097222224</v>
@@ -3657,16 +4016,16 @@
         <v>160</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>162</v>
@@ -3678,7 +4037,7 @@
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3692,13 +4051,13 @@
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>60</v>
@@ -3707,10 +4066,10 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3724,13 +4083,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>59</v>
@@ -3739,15 +4098,15 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3786,16 +4145,16 @@
         <v>160</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>162</v>
@@ -3807,7 +4166,7 @@
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3821,13 +4180,13 @@
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>60</v>
@@ -3836,10 +4195,10 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3853,13 +4212,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>59</v>
@@ -3868,15 +4227,15 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B287FC-C75E-4DEC-88F4-E11066D3838C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F954720-C7F2-4C7D-BE9E-8656A7238DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="290">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1047,19 +1047,177 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>상태별 상담 접수 건수가 올바르게 집계되었으나 실행시간 초과</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1.203 sec</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry_time, status 칼럼에 각각 단일 인덱스 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.328 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>status 인덱스 삭제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.156 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry_time, status 복합 인덱스 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태별 상담 접수 건수가 올바르게 집계되며 실행 시간 1초 미만</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태별 상담 접수 건수가 올바르게 집계되었으나 실행 시간 초과</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.547 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 쿼리 그대로 유지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.078 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 상품의 리뷰를 조회한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 완료 시 고객 등급에 따라 포인트가 적립되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>결제 취소 시 적립된 포인트가 정상적으로 차감되는지 확인한다.</t>
+  </si>
+  <si>
+    <t>CALL AddPointsAfterPayment(1, 100000);</t>
+  </si>
+  <si>
+    <t>CALL DeductPointsAfterRefund(1, 50000);</t>
+  </si>
+  <si>
+    <t>VIP 고객(적립률 2%)이므로 2000 포인트 적립됨 (Point 테이블에서 확인 가능)</t>
+  </si>
+  <si>
+    <t>VIP 고객이므로 5만원 환불 시 1000 포인트 차감됨 (Point 테이블에서 확인 가능)</t>
+  </si>
+  <si>
+    <t>회원가입 시 고객 등급이 Normal로 자동 생성되는지 확인한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트가 소멸 기간이 지나면 자동으로 소멸되는지 확인한다.</t>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO Customer (name, email, phone, login_type) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이몽룡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'mong@test.com', '010-9876-5432', 'Form');</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+SELECT * FROM Grade WHERE customer_id = LAST_INSERT_ID();</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>신규 고객의 등급이 자동으로 Normal 등급으로 설정됨 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Grade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 테이블에서 확인 가능)</t>
+    </r>
+  </si>
+  <si>
+    <t>소멸기간 지난 포인트가 자동으로 Expired 타입으로 전환됨</t>
+  </si>
+  <si>
+    <t>해당 상품(product_id=1001)에 대한 모든 리뷰가 조회됨</t>
+  </si>
+  <si>
+    <t>CALL ExpireOldPoints();
+SELECT * FROM Point WHERE customer_id=1 AND type='Expired';</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Review WHERE product_id = 1001;</t>
+  </si>
+  <si>
+    <t>TC-CM-013</t>
+  </si>
+  <si>
+    <t>TC-CM-014</t>
+  </si>
+  <si>
+    <t>TC-CM-015</t>
+  </si>
+  <si>
+    <t>TC-CM-016</t>
+  </si>
+  <si>
+    <t>TC-CM-017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,6 +1335,25 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1331,7 +1508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1395,6 +1572,9 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1404,7 +1584,7 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1744,7 +1924,7 @@
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="15.25" hidden="1" customWidth="1"/>
@@ -1758,13 +1938,13 @@
     <col min="10" max="10" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="22" t="s">
+    <row r="1" spans="1:11">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1772,7 +1952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1780,7 +1960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1788,14 +1968,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="17.25" thickTop="1">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="33">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1849,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="49.5">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1875,7 +2055,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="33">
       <c r="A9" s="11" t="s">
         <v>35</v>
       </c>
@@ -1899,7 +2079,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="49.5">
       <c r="A10" s="11" t="s">
         <v>212</v>
       </c>
@@ -1923,7 +2103,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="11" t="s">
         <v>213</v>
       </c>
@@ -1947,7 +2127,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="33">
       <c r="A12" s="11" t="s">
         <v>214</v>
       </c>
@@ -1971,7 +2151,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="11" t="s">
         <v>215</v>
       </c>
@@ -1995,7 +2175,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="33">
       <c r="A14" s="11" t="s">
         <v>216</v>
       </c>
@@ -2019,7 +2199,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="33">
       <c r="A15" s="11" t="s">
         <v>217</v>
       </c>
@@ -2043,7 +2223,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="49.5">
       <c r="A16" s="11" t="s">
         <v>218</v>
       </c>
@@ -2067,7 +2247,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="33">
       <c r="A17" s="11" t="s">
         <v>219</v>
       </c>
@@ -2091,7 +2271,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="49.5">
       <c r="A18" s="11" t="s">
         <v>220</v>
       </c>
@@ -2115,7 +2295,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="33">
       <c r="A19" s="11" t="s">
         <v>221</v>
       </c>
@@ -2141,7 +2321,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="33">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
@@ -2174,7 +2354,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="49.5">
       <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
@@ -2207,7 +2387,7 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="33">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -2240,7 +2420,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="33">
       <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
@@ -2273,7 +2453,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="33">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
@@ -2306,7 +2486,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="33">
       <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
@@ -2331,7 +2511,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="49.5">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -2354,7 +2534,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="33">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
@@ -2377,7 +2557,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="33">
       <c r="A28" s="7" t="s">
         <v>110</v>
       </c>
@@ -2400,7 +2580,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="33">
       <c r="A29" s="10" t="s">
         <v>111</v>
       </c>
@@ -2423,7 +2603,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="49.5">
       <c r="A30" s="7" t="s">
         <v>112</v>
       </c>
@@ -2446,7 +2626,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="49.5">
       <c r="A31" s="10" t="s">
         <v>113</v>
       </c>
@@ -2469,7 +2649,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="33">
       <c r="A32" s="7" t="s">
         <v>114</v>
       </c>
@@ -2492,7 +2672,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="33">
       <c r="A33" s="10" t="s">
         <v>115</v>
       </c>
@@ -2517,7 +2697,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="33">
       <c r="A34" s="7" t="s">
         <v>116</v>
       </c>
@@ -2540,7 +2720,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="33">
       <c r="A35" s="10" t="s">
         <v>117</v>
       </c>
@@ -2563,7 +2743,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="66">
       <c r="A36" s="8" t="s">
         <v>119</v>
       </c>
@@ -2586,7 +2766,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="66">
       <c r="A37" s="8" t="s">
         <v>118</v>
       </c>
@@ -2609,7 +2789,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="33">
       <c r="A38" s="8" t="s">
         <v>142</v>
       </c>
@@ -2632,7 +2812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="33">
       <c r="A39" s="8" t="s">
         <v>143</v>
       </c>
@@ -2655,7 +2835,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="33">
       <c r="A40" s="8" t="s">
         <v>144</v>
       </c>
@@ -2678,7 +2858,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="33">
       <c r="A41" s="8" t="s">
         <v>145</v>
       </c>
@@ -2701,7 +2881,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="33">
       <c r="A42" s="8" t="s">
         <v>146</v>
       </c>
@@ -2724,7 +2904,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="33">
       <c r="A43" s="8" t="s">
         <v>147</v>
       </c>
@@ -2747,7 +2927,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="66">
       <c r="A44" s="8" t="s">
         <v>148</v>
       </c>
@@ -2770,7 +2950,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="33">
       <c r="A45" s="8" t="s">
         <v>149</v>
       </c>
@@ -2793,7 +2973,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="9" t="s">
         <v>21</v>
       </c>
@@ -2804,35 +2984,35 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="9"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" s="9"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="9"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="9"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="33">
       <c r="A51" s="6" t="s">
         <v>22</v>
       </c>
@@ -2855,7 +3035,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="33">
       <c r="A52" s="6" t="s">
         <v>177</v>
       </c>
@@ -2878,7 +3058,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="132">
       <c r="A53" s="6" t="s">
         <v>178</v>
       </c>
@@ -2901,7 +3081,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="49.5">
       <c r="A54" s="6" t="s">
         <v>179</v>
       </c>
@@ -2924,25 +3104,25 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
     </row>
   </sheetData>
@@ -2989,13 +3169,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7259E29-CB5E-4A5C-B0A7-CEF0D44896B8}">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
@@ -3009,7 +3189,7 @@
     <col min="10" max="10" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -3041,7 +3221,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="49.5">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -3071,7 +3251,7 @@
       </c>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="33">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -3101,7 +3281,7 @@
       </c>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="49.5">
       <c r="A5" s="11" t="s">
         <v>212</v>
       </c>
@@ -3123,11 +3303,11 @@
       <c r="H5" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="49.5">
       <c r="A6" s="11" t="s">
         <v>212</v>
       </c>
@@ -3145,7 +3325,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="33">
       <c r="A7" s="11" t="s">
         <v>213</v>
       </c>
@@ -3167,11 +3347,11 @@
       <c r="H7" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="21" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="33">
       <c r="A8" s="11" t="s">
         <v>213</v>
       </c>
@@ -3189,7 +3369,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="33">
       <c r="A9" s="11" t="s">
         <v>214</v>
       </c>
@@ -3205,11 +3385,11 @@
       <c r="H9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="33">
       <c r="A10" s="11" t="s">
         <v>215</v>
       </c>
@@ -3238,7 +3418,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="33">
       <c r="A11" s="11" t="s">
         <v>216</v>
       </c>
@@ -3254,11 +3434,11 @@
       <c r="H11" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="33">
       <c r="A12" s="11" t="s">
         <v>217</v>
       </c>
@@ -3287,7 +3467,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="49.5">
       <c r="A13" s="11" t="s">
         <v>218</v>
       </c>
@@ -3316,7 +3496,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="33">
       <c r="A14" s="11" t="s">
         <v>219</v>
       </c>
@@ -3332,11 +3512,11 @@
       <c r="H14" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="49.5">
       <c r="A15" s="11" t="s">
         <v>220</v>
       </c>
@@ -3353,7 +3533,7 @@
         <v>45728.859027777777</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>60</v>
@@ -3362,10 +3542,13 @@
         <v>208</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="49.5">
       <c r="A16" s="11" t="s">
         <v>220</v>
       </c>
@@ -3379,34 +3562,244 @@
         <v>247</v>
       </c>
       <c r="E16" s="18">
-        <v>45728.859027777777</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>45729.814583333333</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="H16" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="49.5">
       <c r="A17" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="E17" s="18">
+        <v>45729.81527777778</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="H17" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="49.5">
+      <c r="A18" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="18">
+        <v>45729.819444444445</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="49.5">
+      <c r="A19" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="18">
+        <v>45729.822222222225</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="33">
+      <c r="A20" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="J20" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="64.5">
+      <c r="A21" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="38.25">
+      <c r="A22" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="33">
+      <c r="A23" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="49.5">
+      <c r="A24" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="49.5">
+      <c r="A25" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="C30" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A17">
+  <conditionalFormatting sqref="A3:A25">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3427,10 +3820,10 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
@@ -3444,7 +3837,7 @@
     <col min="10" max="10" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -3476,8 +3869,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:10" ht="33">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3508,8 +3901,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:10" ht="33">
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
@@ -3538,7 +3931,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="49.5">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
@@ -3567,7 +3960,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="33">
       <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
@@ -3596,7 +3989,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="33">
       <c r="A7" s="20" t="s">
         <v>244</v>
       </c>
@@ -3625,7 +4018,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="33">
       <c r="A8" s="20" t="s">
         <v>245</v>
       </c>
@@ -3679,7 +4072,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
@@ -3693,7 +4086,7 @@
     <col min="10" max="10" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -3725,7 +4118,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="66">
       <c r="A3" s="8" t="s">
         <v>119</v>
       </c>
@@ -3757,7 +4150,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="66">
       <c r="A4" s="8" t="s">
         <v>118</v>
       </c>
@@ -3789,7 +4182,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="66">
       <c r="A5" s="8" t="s">
         <v>142</v>
       </c>
@@ -3814,7 +4207,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="33">
       <c r="A6" s="8" t="s">
         <v>143</v>
       </c>
@@ -3843,7 +4236,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="33">
       <c r="A7" s="8" t="s">
         <v>144</v>
       </c>
@@ -3872,7 +4265,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="33">
       <c r="A8" s="8" t="s">
         <v>145</v>
       </c>
@@ -3901,7 +4294,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="33">
       <c r="A9" s="8" t="s">
         <v>146</v>
       </c>
@@ -3930,7 +4323,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
         <v>147</v>
       </c>
@@ -3943,7 +4336,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
         <v>148</v>
       </c>
@@ -3956,7 +4349,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
         <v>149</v>
       </c>
@@ -3968,7 +4361,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
         <v>238</v>
       </c>
@@ -3994,7 +4387,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
@@ -4008,7 +4401,7 @@
     <col min="10" max="10" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -4040,7 +4433,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="33">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -4072,7 +4465,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="33">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -4104,7 +4497,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="E5" t="s">
         <v>233</v>
       </c>
@@ -4123,7 +4516,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
@@ -4137,7 +4530,7 @@
     <col min="10" max="10" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -4169,7 +4562,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="33">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -4201,7 +4594,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="33">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -4233,7 +4626,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="E5" t="s">
         <v>233</v>
       </c>

--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F954720-C7F2-4C7D-BE9E-8656A7238DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB72B8D-89AE-4E90-8E30-A3BEE40071D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
     <sheet name="Customer" sheetId="16" r:id="rId2"/>
-    <sheet name="Product" sheetId="20" r:id="rId3"/>
-    <sheet name="Store" sheetId="21" r:id="rId4"/>
-    <sheet name="Payment" sheetId="22" r:id="rId5"/>
-    <sheet name="Delivery" sheetId="23" r:id="rId6"/>
+    <sheet name="Customer_Link" sheetId="24" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testcase!$A$7:$N$7</definedName>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="292">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -920,22 +917,6 @@
     <t>1 row(s) affected</t>
   </si>
   <si>
-    <t>탁태호</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 가격을 음수 값으로 입력시 입력되지 않도록 제약사항 추가</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error Code: 3819. Check constraint 'chk_positive_price' is violated.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류 메시지를 우리가 지정하는 메시지로 수정 할 수 있는지 여부</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>쿼리 실행 시간</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -952,27 +933,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>m</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>이승용</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.015 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 row(s) affected Rows matched: 1  Changed: 1  Warnings: 0</t>
-  </si>
-  <si>
-    <t>Error Code: 1364. Field 'quantity' doesn't have a default value</t>
-  </si>
-  <si>
-    <t>TC-EM-011</t>
-  </si>
-  <si>
     <t>SELECT * FROM Product WHERE product_id = 9999999;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -984,26 +944,6 @@
     <t>0.016 sec</t>
   </si>
   <si>
-    <t>0 row(s) returned</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error Code: 1054. Unknown column 'final_price' in 'field list'</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-PR-004</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-PR-005</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid column type 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>최은우</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1099,63 +1039,125 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>회원가입 시 고객 등급이 Normal로 자동 생성되는지 확인한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL ExpireOldPoints();
+SELECT * FROM Point WHERE customer_id=1 AND type='Expired';</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-CM-013</t>
+  </si>
+  <si>
+    <t>TC-CM-014</t>
+  </si>
+  <si>
+    <t>TC-CM-015</t>
+  </si>
+  <si>
+    <t>TC-CM-016</t>
+  </si>
+  <si>
+    <t>TC-CM-017</t>
+  </si>
+  <si>
+    <t>TC-PR-PT-001 트리거의 문제점을 보안하기 위해 설계. DISCOUNTS 테이블에 데이터가 들어가는 순간 어떤 상품인지 알려고하면 여러 과정을 거쳐야지 상품의 ID나 상품 이름을 알 수있는 문제를 해결하기 위해 TC-PR-PT-001 트리거를 삭제하고 해당 프로시저를 사용하여 문제 해결</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyDiscount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIGGER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성날짜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세내용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저/트리거 이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저/트리거 ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-CM-PT-001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER // 
+CREATE TRIGGER trg_after_customer_insert 
+AFTER INSERT ON Customer 
+FOR EACH ROW 
+BEGIN
+INSERT INTO Grade (customer_id, name, accumulated_amount, reason)
+VALUES (NEW.customer_id, 'Normal', 0, '신규 고객 가입 시 기본 등급 생성');
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trg_after_customer_insert</t>
+  </si>
+  <si>
+    <t>회원가입 시 고객 등급이 Normal로 자동 생성</t>
+  </si>
+  <si>
+    <t>문서 링크</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Review WHERE product_id = 1001;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL AddPointsAfterPayment(1, 100000);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL DeductPointsAfterRefund(1, 50000);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 취소 시 적립된 포인트가 정상적으로 차감되는지 확인한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>결제 완료 시 고객 등급에 따라 포인트가 적립되는지 확인한다.</t>
-  </si>
-  <si>
-    <t>결제 취소 시 적립된 포인트가 정상적으로 차감되는지 확인한다.</t>
-  </si>
-  <si>
-    <t>CALL AddPointsAfterPayment(1, 100000);</t>
-  </si>
-  <si>
-    <t>CALL DeductPointsAfterRefund(1, 50000);</t>
-  </si>
-  <si>
-    <t>VIP 고객(적립률 2%)이므로 2000 포인트 적립됨 (Point 테이블에서 확인 가능)</t>
-  </si>
-  <si>
-    <t>VIP 고객이므로 5만원 환불 시 1000 포인트 차감됨 (Point 테이블에서 확인 가능)</t>
-  </si>
-  <si>
-    <t>회원가입 시 고객 등급이 Normal로 자동 생성되는지 확인한다.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>포인트가 소멸 기간이 지나면 자동으로 소멸되는지 확인한다.</t>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO Customer (name, email, phone, login_type) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이몽룡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>', 'mong@test.com', '010-9876-5432', 'Form');</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-SELECT * FROM Grade WHERE customer_id = LAST_INSERT_ID();</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1182,42 +1184,39 @@
       </rPr>
       <t xml:space="preserve"> 테이블에서 확인 가능)</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>소멸기간 지난 포인트가 자동으로 Expired 타입으로 전환됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 상품(product_id=1001)에 대한 모든 리뷰가 조회됨</t>
-  </si>
-  <si>
-    <t>CALL ExpireOldPoints();
-SELECT * FROM Point WHERE customer_id=1 AND type='Expired';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM Review WHERE product_id = 1001;</t>
-  </si>
-  <si>
-    <t>TC-CM-013</t>
-  </si>
-  <si>
-    <t>TC-CM-014</t>
-  </si>
-  <si>
-    <t>TC-CM-015</t>
-  </si>
-  <si>
-    <t>TC-CM-016</t>
-  </si>
-  <si>
-    <t>TC-CM-017</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP 고객(적립률 2%)이므로 2000 포인트 적립됨 (Point 테이블에서 확인 가능)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP 고객이므로 5만원 환불 시 1000 포인트 차감됨 (Point 테이블에서 확인 가능)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Customer (name, email, phone, login_type) VALUES
+('정포미', 'nyam11@test.com', '010-0123-4567', 'Kakao');
+SELECT * FROM Grade WHERE customer_id = LAST_INSERT_ID();</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,20 +1342,30 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1449,6 +1458,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1470,7 +1485,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1507,8 +1522,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1569,31 +1587,44 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="20% - 강조색1" xfId="6" builtinId="30"/>
     <cellStyle name="20% - 강조색2" xfId="7" builtinId="34"/>
     <cellStyle name="20% - 강조색3" xfId="8" builtinId="38"/>
     <cellStyle name="20% - 강조색4" xfId="9" builtinId="42"/>
     <cellStyle name="20% - 강조색6" xfId="10" builtinId="50"/>
+    <cellStyle name="40% - 강조색5" xfId="12" builtinId="47"/>
     <cellStyle name="강조색1" xfId="5" builtinId="29"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="보통" xfId="3" builtinId="28"/>
@@ -1920,7 +1951,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2070,7 +2101,7 @@
         <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>184</v>
@@ -2166,7 +2197,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>194</v>
@@ -2214,7 +2245,7 @@
         <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>199</v>
@@ -2350,7 +2381,7 @@
         <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -2377,13 +2408,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -2404,19 +2435,19 @@
         <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -2443,13 +2474,13 @@
         <v>67</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -2476,13 +2507,13 @@
         <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -3169,27 +3200,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7259E29-CB5E-4A5C-B0A7-CEF0D44896B8}">
-  <dimension ref="A2:J30"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="32.875" customWidth="1"/>
+    <col min="10" max="10" width="36.75" customWidth="1"/>
+    <col min="11" max="11" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" ht="33">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -3199,29 +3232,32 @@
       <c r="C2" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.5">
+    <row r="3" spans="1:11" ht="49.5">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -3231,27 +3267,28 @@
       <c r="C3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="18">
         <v>45728.804861111108</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="33">
+      <c r="J3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="33">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -3259,29 +3296,30 @@
         <v>183</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="18">
+        <v>234</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="18">
         <v>45728.809027777781</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="49.5">
+      <c r="J4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="49.5">
       <c r="A5" s="11" t="s">
         <v>212</v>
       </c>
@@ -3291,23 +3329,24 @@
       <c r="C5" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="18">
         <v>45728.819444444445</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="49.5">
+      <c r="K5" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="49.5">
       <c r="A6" s="11" t="s">
         <v>212</v>
       </c>
@@ -3317,15 +3356,16 @@
       <c r="C6" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="H6" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="I6" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="33">
+    <row r="7" spans="1:11" ht="33">
       <c r="A7" s="11" t="s">
         <v>213</v>
       </c>
@@ -3333,25 +3373,26 @@
         <v>188</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E7" s="18">
+        <v>234</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="18">
         <v>45728.819444444445</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="33">
+      <c r="K7" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="33">
       <c r="A8" s="11" t="s">
         <v>213</v>
       </c>
@@ -3359,17 +3400,18 @@
         <v>188</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="H8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="I8" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33">
+    <row r="9" spans="1:11" ht="33">
       <c r="A9" s="11" t="s">
         <v>214</v>
       </c>
@@ -3379,17 +3421,18 @@
       <c r="C9" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="33">
+      <c r="K9" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33">
       <c r="A10" s="11" t="s">
         <v>215</v>
       </c>
@@ -3397,28 +3440,29 @@
         <v>193</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E10" s="18">
+        <v>238</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="18">
         <v>45728.845138888886</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="33">
+        <v>239</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33">
       <c r="A11" s="11" t="s">
         <v>216</v>
       </c>
@@ -3428,17 +3472,18 @@
       <c r="C11" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="33">
+      <c r="K11" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="33">
       <c r="A12" s="11" t="s">
         <v>217</v>
       </c>
@@ -3446,28 +3491,29 @@
         <v>198</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="18">
+        <v>241</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="18">
         <v>45728.848611111112</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="49.5">
+      <c r="J12" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="49.5">
       <c r="A13" s="11" t="s">
         <v>218</v>
       </c>
@@ -3477,26 +3523,27 @@
       <c r="C13" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E13" s="18">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="18">
         <v>45728.853472222225</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="33">
+      <c r="J13" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="33">
       <c r="A14" s="11" t="s">
         <v>219</v>
       </c>
@@ -3506,17 +3553,18 @@
       <c r="C14" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J14" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="49.5">
+      <c r="K14" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="49.5">
       <c r="A15" s="11" t="s">
         <v>220</v>
       </c>
@@ -3526,29 +3574,30 @@
       <c r="C15" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="18">
         <v>45728.859027777777</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="49.5">
+        <v>250</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="49.5">
       <c r="A16" s="11" t="s">
         <v>220</v>
       </c>
@@ -3558,29 +3607,30 @@
       <c r="C16" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="18">
         <v>45729.814583333333</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="49.5">
+        <v>250</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="49.5">
       <c r="A17" s="11" t="s">
         <v>220</v>
       </c>
@@ -3590,29 +3640,30 @@
       <c r="C17" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="18">
+        <v>45729.81527777778</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="18">
-        <v>45729.81527777778</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="49.5">
+        <v>250</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="49.5">
       <c r="A18" s="11" t="s">
         <v>220</v>
       </c>
@@ -3622,29 +3673,30 @@
       <c r="C18" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" s="18">
         <v>45729.819444444445</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="49.5">
+        <v>250</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="49.5">
       <c r="A19" s="11" t="s">
         <v>220</v>
       </c>
@@ -3654,27 +3706,28 @@
       <c r="C19" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="18">
         <v>45729.822222222225</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="33">
+      <c r="J19" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="33">
       <c r="A20" s="11" t="s">
         <v>221</v>
       </c>
@@ -3684,118 +3737,125 @@
       <c r="C20" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="64.5">
+      <c r="K20" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="99">
       <c r="A21" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="49.5">
+      <c r="A22" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H21" s="17" t="s">
+      <c r="C22" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="33">
+      <c r="A23" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J21" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="38.25">
-      <c r="A22" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" s="25" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="49.5">
+      <c r="A24" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="49.5">
+      <c r="A25" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="C25" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J23" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="49.5">
-      <c r="A24" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="49.5">
-      <c r="A25" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C25" t="s">
-        <v>274</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="C30" s="25"/>
+      <c r="E25" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -3816,823 +3876,96 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
-  <dimension ref="A2:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64511E29-CFFB-4B17-BA96-CA48335760D0}">
+  <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="101.875" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33">
-      <c r="A3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
+    <row r="2" spans="1:7" ht="17.25">
+      <c r="A2" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="198">
+      <c r="A3" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>276</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="18">
-        <v>45727.839618055557</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33">
-      <c r="A4" s="24"/>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="18">
-        <v>45727.854421296295</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="49.5">
-      <c r="A5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="18">
-        <v>45727.906504629631</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="33">
-      <c r="A6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" s="18">
-        <v>45727.901932870373</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="33">
-      <c r="A7" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="18">
-        <v>45727.907893518517</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="33">
-      <c r="A8" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="18">
-        <v>45727.910671296297</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A4"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3:A4" location="Testcase!A20" display="TC-PR-001" xr:uid="{BAF89767-6968-4694-B41E-9BA5F84676F4}"/>
-    <hyperlink ref="A6" location="Testcase!A22" display="TC-PR-003" xr:uid="{909FC8BB-EB48-45F1-BB2F-C0109E1D4CC5}"/>
-    <hyperlink ref="A5" location="Testcase!A21" display="TC-PR-002" xr:uid="{5003DD96-8F69-4A54-8F51-4C3467979C41}"/>
-    <hyperlink ref="A7" location="Testcase!A23" display="TC-PR-004" xr:uid="{96602370-6BBC-469E-96E0-68E53D6BD990}"/>
-    <hyperlink ref="A8" location="Testcase!A24" display="TC-PR-005" xr:uid="{F7188A28-EEC9-48DA-AEB9-DE4272AA4B17}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
-  <dimension ref="A2:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="66">
-      <c r="A3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="18">
-        <v>45727.870196759257</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="66">
-      <c r="A4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" s="18">
-        <v>45727.879166666666</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="66">
-      <c r="A5" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="18">
-        <v>45727.884097222224</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="33">
-      <c r="A6" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="18">
-        <v>45727.881423611114</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="33">
-      <c r="A7" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" s="18">
-        <v>45727.882337962961</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="33">
-      <c r="A8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="18">
-        <v>45727.883425925924</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33">
-      <c r="A9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="18">
-        <v>45727.884097222224</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="18">
-        <v>45727.884097222224</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="18">
-        <v>45728.884097222224</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="18">
-        <v>45729.884097222224</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="18">
-        <v>45730.884097222224</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="24">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="132">
+      <c r="A4" s="11"/>
+      <c r="B4" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444E93D6-ED11-4590-A7D7-036BA4610650}">
-  <dimension ref="A2:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="18">
-        <v>45727.839618055557</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="18">
-        <v>45727.854421296295</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="E5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50FCE08-A9A6-4483-84DE-98EAA6AAEB1B}">
-  <dimension ref="A2:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="18">
-        <v>45727.839618055557</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="18">
-        <v>45727.854421296295</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="E5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:A4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB72B8D-89AE-4E90-8E30-A3BEE40071D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBC4EFF-31DD-480A-9A73-82D550EC32BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="303">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -955,10 +955,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>고객 1명이 주문 1개하는 데이터로 들어가서 테스트 케이스 불가</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>주문 데이터 다 안 들어가서 테스트 케이스 불가</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1061,14 +1057,6 @@
   </si>
   <si>
     <t>TC-CM-017</t>
-  </si>
-  <si>
-    <t>TC-PR-PT-001 트리거의 문제점을 보안하기 위해 설계. DISCOUNTS 테이블에 데이터가 들어가는 순간 어떤 상품인지 알려고하면 여러 과정을 거쳐야지 상품의 ID나 상품 이름을 알 수있는 문제를 해결하기 위해 TC-PR-PT-001 트리거를 삭제하고 해당 프로시저를 사용하여 문제 해결</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplyDiscount</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>PROCEDURE</t>
@@ -1123,17 +1111,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>trg_after_customer_insert</t>
-  </si>
-  <si>
     <t>회원가입 시 고객 등급이 Normal로 자동 생성</t>
   </si>
   <si>
     <t>문서 링크</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trigger</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1203,9 +1184,131 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>SELECT * FROM Grade WHERE customer_id = LAST_INSERT_ID();</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>INSERT INTO Customer (name, email, phone, login_type) VALUES
-('정포미', 'nyam11@test.com', '010-0123-4567', 'Kakao');
-SELECT * FROM Grade WHERE customer_id = LAST_INSERT_ID();</t>
+('정포미', 'nyam11@test.com', '010-0123-4567', 'Kakao');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trg_after_customer_insert</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review_Product_View</t>
+  </si>
+  <si>
+    <t>0.032 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능 개선을 위해 상품명을 바로 확인할 수 있는 view 생성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE VIEW Review_Product_View AS
+SELECT 
+    r.review_id,
+    r.customer_id,
+    r.product_id,
+    p.name AS product_name,
+    r.star,
+    r.content,
+    r.created_at,
+    r.updated_at
+FROM Review r
+JOIN Online_Cart_Product ocp ON r.product_id = ocp.product_id
+JOIN Warehouse_Inventory wi ON ocp.inventory_id = wi.inventory_id
+JOIN Product p ON wi.product_id = p.product_id;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없어서 못함</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적, 원하는 결과, 작성자, 처리 흐름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIEW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_Point_Expiration</t>
+  </si>
+  <si>
+    <t>Add_Points_After_Payment</t>
+  </si>
+  <si>
+    <t>Deduct_Points_On_Cancellation</t>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE Check_Point_Expiration()
+BEGIN
+    UPDATE Point
+    SET total_points = total_points - delta,
+        delta = -delta,
+        type = 'Expired',
+        date_time = NOW()
+    WHERE type = 'Earned'
+    AND TIMESTAMPDIFF(DAY, date_time, CURRENT_TIMESTAMP) &gt; 365
+    AND current_points &gt; 0;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE Add_Points_After_Payment(
+    IN customerId BIGINT,
+    IN orderAmount INT,
+    IN paymentDate DATETIME
+)
+BEGIN
+    DECLARE customerGrade ENUM('Normal', 'VIP', 'VVIP', 'SVIP');
+    DECLARE pointsToAdd INT;
+    SELECT name INTO @grade FROM Grade WHERE customer_id = customerId;
+    IF @grade = 'Normal' THEN
+        SET points = 0.01;
+    ELSEIF @grade = 'VIP' THEN
+        SET points = 0.02;
+    ELSEIF @grade = 'VVIP' THEN
+        SET points = 0.03;
+    ELSEIF @grade = 'SVIP' THEN
+        SET points = 0.05;
+    END IF;
+    INSERT INTO Point (customer_id, type, delta, total_points, current_points, date_time)
+    VALUES (customerId, 'Earned', FLOOR(orderAmount * points), FLOOR(orderAmount * points), FLOOR(orderAmount * points), CURRENT_TIMESTAMP);
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE Deduct_Points_On_Cancellation(
+    IN customerId BIGINT,
+    IN cancelAmount INT
+)
+BEGIN
+    INSERT INTO Point(customer_id, type, delta, current_points, total_points, date_time)
+    VALUES (
+        customerId,
+        'Used',
+        FLOOR(-(cancelAmount * 0.01)), -- 고객의 등급에 따른 적립률을 참조하여 정확한 값을 입력해야 합니다.
+        0,
+        (SELECT total_points FROM Point WHERE customer_id = customerId ORDER BY date_time DESC LIMIT 1) - FLOOR(cancelAmount * 0.01),
+        CURRENT_TIMESTAMP
+    );
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 1명이 주문 1개하는 데이터로 들어가서 테스트 케이스 불가 / 호창씨랑 상의해보기</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1216,7 +1319,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1340,12 +1443,6 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -1526,7 +1623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1593,29 +1690,44 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1970,10 +2082,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:11">
       <c r="F2" s="5" t="s">
@@ -2000,13 +2112,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -2197,7 +2309,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>194</v>
@@ -2245,7 +2357,7 @@
         <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>199</v>
@@ -3200,11 +3312,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7259E29-CB5E-4A5C-B0A7-CEF0D44896B8}">
-  <dimension ref="A2:K30"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3233,7 +3345,7 @@
         <v>222</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>161</v>
@@ -3343,14 +3455,14 @@
         <v>187</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5">
       <c r="A6" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="20" t="s">
         <v>185</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3365,7 +3477,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="33">
+    <row r="7" spans="1:11" ht="49.5">
       <c r="A7" s="11" t="s">
         <v>213</v>
       </c>
@@ -3389,14 +3501,14 @@
         <v>184</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
       <c r="A8" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3415,13 +3527,15 @@
       <c r="A9" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="20" t="s">
         <v>190</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>232</v>
       </c>
@@ -3429,7 +3543,7 @@
         <v>192</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="33">
@@ -3440,7 +3554,7 @@
         <v>193</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -3456,23 +3570,25 @@
         <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33">
       <c r="A11" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="20" t="s">
         <v>195</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>232</v>
       </c>
@@ -3480,7 +3596,7 @@
         <v>197</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="33">
@@ -3491,7 +3607,7 @@
         <v>198</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -3510,7 +3626,7 @@
         <v>199</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="49.5">
@@ -3547,13 +3663,15 @@
       <c r="A14" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="20" t="s">
         <v>203</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>232</v>
       </c>
@@ -3561,7 +3679,7 @@
         <v>205</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5">
@@ -3582,7 +3700,7 @@
         <v>45728.859027777777</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>60</v>
@@ -3591,10 +3709,10 @@
         <v>208</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
@@ -3615,19 +3733,19 @@
         <v>45729.814583333333</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="K16" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5">
@@ -3648,19 +3766,19 @@
         <v>45729.81527777778</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="K17" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5">
@@ -3681,19 +3799,19 @@
         <v>45729.819444444445</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="K18" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.5">
@@ -3714,7 +3832,7 @@
         <v>45729.822222222225</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>59</v>
@@ -3723,7 +3841,7 @@
         <v>208</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -3731,13 +3849,15 @@
       <c r="A20" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="20" t="s">
         <v>209</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>232</v>
       </c>
@@ -3745,122 +3865,214 @@
         <v>211</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="99">
-      <c r="A21" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="F21" s="31">
+        <v>45730.8</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="K21" s="28"/>
+    </row>
+    <row r="22" spans="1:11" ht="66">
+      <c r="A22" s="29"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+    </row>
+    <row r="23" spans="1:11" ht="33">
+      <c r="A23" s="29"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="K21" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="49.5">
-      <c r="A22" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="33">
-      <c r="A23" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>237</v>
-      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" ht="49.5">
       <c r="A24" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>280</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>281</v>
+        <v>256</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>232</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="K24" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="49.5">
-      <c r="A25" s="11" t="s">
+      <c r="D25" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="18">
+        <v>45730.824305555558</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="33">
+      <c r="A26" s="29"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="33"/>
+    </row>
+    <row r="27" spans="1:11" ht="49.5">
+      <c r="A27" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="I27" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="49.5">
+      <c r="A28" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="E21:E23"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A25">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="A3:A21 A27:A28 A24:A25">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3877,10 +4089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64511E29-CFFB-4B17-BA96-CA48335760D0}">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3896,65 +4108,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="17.25">
-      <c r="A2" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="A2" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="D2" s="24" t="s">
         <v>267</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="198">
       <c r="A3" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>288</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" s="24">
+        <v>272</v>
+      </c>
+      <c r="F3" s="22">
         <v>45729</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="132">
-      <c r="A4" s="11"/>
-      <c r="B4" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>264</v>
+    <row r="4" spans="1:7" ht="231">
+      <c r="B4" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="24"/>
+        <v>291</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="22">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="214.5">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="22">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5">
+      <c r="B6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="22">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="297">
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="22">
+        <v>45730</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A4">
+  <conditionalFormatting sqref="A3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBC4EFF-31DD-480A-9A73-82D550EC32BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9948806D-7F9A-4B50-B923-BC9E0917C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="308">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1229,36 +1229,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>목적, 원하는 결과, 작성자, 처리 흐름</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>VIEW</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check_Point_Expiration</t>
-  </si>
-  <si>
-    <t>Add_Points_After_Payment</t>
-  </si>
-  <si>
-    <t>Deduct_Points_On_Cancellation</t>
-  </si>
-  <si>
-    <t>DELIMITER //
-CREATE PROCEDURE Check_Point_Expiration()
-BEGIN
-    UPDATE Point
-    SET total_points = total_points - delta,
-        delta = -delta,
-        type = 'Expired',
-        date_time = NOW()
-    WHERE type = 'Earned'
-    AND TIMESTAMPDIFF(DAY, date_time, CURRENT_TIMESTAMP) &gt; 365
-    AND current_points &gt; 0;
-END //
-DELIMITER ;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1308,7 +1279,81 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>고객 1명이 주문 1개하는 데이터로 들어가서 테스트 케이스 불가 / 호창씨랑 상의해보기</t>
+    <t>DELIMITER //
+CREATE TRIGGER prevent_delete_completed_qna
+BEFORE DELETE ON QnA
+FOR EACH ROW
+BEGIN
+    IF OLD.status = 'Completed' THEN
+        SIGNAL SQLSTATE '45000'
+        SET MESSAGE_TEXT = '답변 완료된 상담은 삭제할 수 없습니다.';
+    END IF;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE TRIGGER prevent_update_completed_qna
+BEFORE UPDATE ON QnA
+FOR EACH ROW
+BEGIN
+    IF OLD.status = 'Completed' THEN
+        SIGNAL SQLSTATE '45000'
+        SET MESSAGE_TEXT = '답변 완료된 상담은 수정할 수 없습니다.';
+    END IF;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 완료된 상담이 삭제되지 않도록 방지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 완료된 상담의 내용을 수정하지 못하도록 방지</t>
+  </si>
+  <si>
+    <t>prevent_delete_completed_qna</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevent_update_completed_qna</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deduct_Points_On_Cancellation</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Points_After_Payment</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET GLOBAL event_scheduler = ON;
+DELIMITER //
+CREATE EVENT Expire_Points_Event
+ON SCHEDULE EVERY 1 DAY
+STARTS TIMESTAMP(CURRENT_DATE, '00:00:00')
+DO
+BEGIN
+    UPDATE Point
+    SET total_points = total_points - delta,
+        delta = -delta,
+        type = 'Expired',
+        date_time = NOW()
+    WHERE type = 'Earned'
+    AND TIMESTAMPDIFF(DAY, date_time, CURRENT_TIMESTAMP) &gt; 365
+    AND current_points &gt; 0;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expire_Points_Event</t>
+  </si>
+  <si>
+    <t>EVENT SCHEDULER</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1623,7 +1668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1702,6 +1747,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1709,24 +1757,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2082,10 +2130,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="27"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:11">
       <c r="F2" s="5" t="s">
@@ -2112,13 +2160,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -3312,11 +3360,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7259E29-CB5E-4A5C-B0A7-CEF0D44896B8}">
-  <dimension ref="A2:K33"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3477,209 +3525,223 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="49.5">
+    <row r="7" spans="1:11" ht="33">
       <c r="A7" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>188</v>
+        <v>214</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>190</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="18">
-        <v>45728.819444444445</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
       <c r="A8" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>188</v>
+        <v>215</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>45728.845138888886</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>184</v>
+        <v>238</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="33">
       <c r="A9" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>232</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="33">
       <c r="A10" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F10" s="18">
-        <v>45728.845138888886</v>
+        <v>45728.848611111112</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="33">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="49.5">
       <c r="A11" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>195</v>
+        <v>218</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>262</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="F11" s="18">
+        <v>45728.853472222225</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="I11" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>236</v>
+        <v>202</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="33">
       <c r="A12" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>198</v>
+        <v>219</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>203</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>263</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F12" s="18">
-        <v>45728.848611111112</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="49.5">
       <c r="A13" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F13" s="18">
-        <v>45728.853472222225</v>
+        <v>45728.859027777777</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>59</v>
+        <v>242</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="33">
+        <v>249</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="49.5">
       <c r="A14" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>203</v>
+        <v>220</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>262</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="F14" s="18">
+        <v>45729.814583333333</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="I14" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>236</v>
+        <v>248</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5">
@@ -3697,22 +3759,22 @@
         <v>232</v>
       </c>
       <c r="F15" s="18">
-        <v>45728.859027777777</v>
+        <v>45729.81527777778</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>249</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
@@ -3730,10 +3792,10 @@
         <v>232</v>
       </c>
       <c r="F16" s="18">
-        <v>45729.814583333333</v>
+        <v>45729.819444444445</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>60</v>
@@ -3745,7 +3807,7 @@
         <v>249</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5">
@@ -3763,187 +3825,165 @@
         <v>232</v>
       </c>
       <c r="F17" s="18">
-        <v>45729.81527777778</v>
+        <v>45729.822222222225</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>60</v>
+        <v>253</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F18" s="18">
-        <v>45729.819444444445</v>
+      <c r="F18" s="33">
+        <v>45730.8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="49.5">
-      <c r="A19" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:11" ht="66">
+      <c r="A19" s="32"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" ht="33">
+      <c r="A20" s="32"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" ht="49.5">
+      <c r="A21" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F19" s="18">
-        <v>45729.822222222225</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="33">
-      <c r="A20" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="I21" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="F21" s="31">
-        <v>45730.8</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="K21" s="28"/>
-    </row>
-    <row r="22" spans="1:11" ht="66">
-      <c r="A22" s="29"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="31"/>
+      <c r="F22" s="18">
+        <v>45730.824305555558</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
+        <v>290</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="29" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="33">
-      <c r="A23" s="29"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
+        <v>275</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="30"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:11" ht="49.5">
       <c r="A24" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>262</v>
@@ -3952,126 +3992,59 @@
         <v>232</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K24" s="20" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>254</v>
+    <row r="25" spans="1:11" ht="49.5">
+      <c r="A25" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>278</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="E25" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F25" s="18">
-        <v>45730.824305555558</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="33" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="33">
-      <c r="A26" s="29"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="28"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="33"/>
-    </row>
-    <row r="27" spans="1:11" ht="49.5">
-      <c r="A27" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K27" s="20" t="s">
+      <c r="I25" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K25" s="20" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="49.5">
-      <c r="A28" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+    <row r="30" spans="1:11">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A21 A27:A28 A24:A25">
+  <conditionalFormatting sqref="A24:A25 A3:A18 A21:A22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4089,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64511E29-CFFB-4B17-BA96-CA48335760D0}">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4134,10 +4107,10 @@
       <c r="A3" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>288</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -4151,13 +4124,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="231">
-      <c r="B4" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="35" t="s">
         <v>291</v>
       </c>
       <c r="E4" s="25" t="s">
@@ -4167,49 +4140,80 @@
         <v>45730</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="214.5">
-      <c r="A5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:7" ht="330">
+      <c r="B5" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="22">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5">
+      <c r="B6" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="22">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="297">
+      <c r="B7" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F7" s="22">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="214.5">
+      <c r="B8" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="F5" s="22">
-        <v>45730</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.5">
-      <c r="B6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E8" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F8" s="22">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="214.5">
+      <c r="B9" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="F6" s="22">
-        <v>45730</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="297">
-      <c r="B7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F7" s="22">
-        <v>45730</v>
+      <c r="F9" s="22">
+        <v>45731</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9948806D-7F9A-4B50-B923-BC9E0917C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC3798A-0244-4406-AAF2-DEDD81A73E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="315">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1036,11 +1036,6 @@
   </si>
   <si>
     <t>회원가입 시 고객 등급이 Normal로 자동 생성되는지 확인한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CALL ExpireOldPoints();
-SELECT * FROM Point WHERE customer_id=1 AND type='Expired';</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1115,18 +1110,6 @@
   </si>
   <si>
     <t>문서 링크</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM Review WHERE product_id = 1001;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CALL AddPointsAfterPayment(1, 100000);</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CALL DeductPointsAfterRefund(1, 50000);</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1172,10 +1155,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>해당 상품(product_id=1001)에 대한 모든 리뷰가 조회됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP 고객(적립률 2%)이므로 2000 포인트 적립됨 (Point 테이블에서 확인 가능)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1200,82 +1179,11 @@
     <t>Review_Product_View</t>
   </si>
   <si>
-    <t>0.032 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>성능 개선을 위해 상품명을 바로 확인할 수 있는 view 생성</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE VIEW Review_Product_View AS
-SELECT 
-    r.review_id,
-    r.customer_id,
-    r.product_id,
-    p.name AS product_name,
-    r.star,
-    r.content,
-    r.created_at,
-    r.updated_at
-FROM Review r
-JOIN Online_Cart_Product ocp ON r.product_id = ocp.product_id
-JOIN Warehouse_Inventory wi ON ocp.inventory_id = wi.inventory_id
-JOIN Product p ON wi.product_id = p.product_id;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없어서 못함</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>VIEW</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELIMITER //
-CREATE PROCEDURE Add_Points_After_Payment(
-    IN customerId BIGINT,
-    IN orderAmount INT,
-    IN paymentDate DATETIME
-)
-BEGIN
-    DECLARE customerGrade ENUM('Normal', 'VIP', 'VVIP', 'SVIP');
-    DECLARE pointsToAdd INT;
-    SELECT name INTO @grade FROM Grade WHERE customer_id = customerId;
-    IF @grade = 'Normal' THEN
-        SET points = 0.01;
-    ELSEIF @grade = 'VIP' THEN
-        SET points = 0.02;
-    ELSEIF @grade = 'VVIP' THEN
-        SET points = 0.03;
-    ELSEIF @grade = 'SVIP' THEN
-        SET points = 0.05;
-    END IF;
-    INSERT INTO Point (customer_id, type, delta, total_points, current_points, date_time)
-    VALUES (customerId, 'Earned', FLOOR(orderAmount * points), FLOOR(orderAmount * points), FLOOR(orderAmount * points), CURRENT_TIMESTAMP);
-END //
-DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELIMITER //
-CREATE PROCEDURE Deduct_Points_On_Cancellation(
-    IN customerId BIGINT,
-    IN cancelAmount INT
-)
-BEGIN
-    INSERT INTO Point(customer_id, type, delta, current_points, total_points, date_time)
-    VALUES (
-        customerId,
-        'Used',
-        FLOOR(-(cancelAmount * 0.01)), -- 고객의 등급에 따른 적립률을 참조하여 정확한 값을 입력해야 합니다.
-        0,
-        (SELECT total_points FROM Point WHERE customer_id = customerId ORDER BY date_time DESC LIMIT 1) - FLOOR(cancelAmount * 0.01),
-        CURRENT_TIMESTAMP
-    );
-END //
-DELIMITER ;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1311,9 +1219,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>답변 완료된 상담의 내용을 수정하지 못하도록 방지</t>
-  </si>
-  <si>
     <t>prevent_delete_completed_qna</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1322,11 +1227,48 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Deduct_Points_On_Cancellation</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Points_After_Payment</t>
+    <t>EVENT SCHEDULER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.015 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE VIEW Review_Product_View AS
+SELECT 
+    r.review_id,
+    r.customer_id,
+    p.product_id,
+    p.name AS product_name,
+    r.star,
+    r.content,
+    r.created_at,
+    r.updated_at
+FROM Review r
+JOIN Online_Cart_Product ocp ON r.product_id = ocp.product_id
+JOIN Warehouse_Inventory wi ON ocp.inventory_id = wi.inventory_id
+JOIN Product p ON wi.product_id = p.product_id;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Review_Product_View where product_id = 6681;</t>
+  </si>
+  <si>
+    <t>해당 상품(product_id=6681)에 대한 모든 리뷰가 조회됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 상품(product_id=6681)에 대한 모든 리뷰(4개)가 조회됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expire_Points_Event</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expire_Points_Event
+SELECT * FROM Point WHERE customer_id=1 AND type='Expired';</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1334,14 +1276,20 @@
 DELIMITER //
 CREATE EVENT Expire_Points_Event
 ON SCHEDULE EVERY 1 DAY
-STARTS TIMESTAMP(CURRENT_DATE, '00:00:00')
+STARTS TIMESTAMPADD(SECOND, 0, CURRENT_TIMESTAMP)  -- 현재 시간 기준 시작
 DO
 BEGIN
-    UPDATE Point
-    SET total_points = total_points - delta,
-        delta = -delta,
-        type = 'Expired',
-        date_time = NOW()
+    -- 소멸 대상인 Earned 포인트를 Expired로 INSERT
+    INSERT INTO Point (customer_id, total_amount, current_points, type, delta, total_points, date_time)
+    SELECT 
+        customer_id, 
+        0 AS total_amount,  -- 소멸된 포인트이므로 결제 금액 없음
+        0 AS current_points, -- 소멸이므로 현재 포인트 없음
+        'Expired' AS type,   -- 소멸 상태로 기록
+        -delta AS delta,     -- 기존 Earned 포인트의 음수값으로 소멸
+        (SELECT SUM(delta) FROM Point p2 WHERE p2.customer_id = p1.customer_id) - delta AS total_points, -- 소멸 후 총 포인트 반영
+        NOW() AS date_time   -- 현재 시간 기준으로 소멸 처리
+    FROM Point p1
     WHERE type = 'Earned'
     AND TIMESTAMPDIFF(DAY, date_time, CURRENT_TIMESTAMP) &gt; 365
     AND current_points &gt; 0;
@@ -1350,11 +1298,356 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Expire_Points_Event</t>
-  </si>
-  <si>
-    <t>EVENT SCHEDULER</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>3/18 결과 확인하기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE UpdateCustomerGrade(IN p_customer_id BIGINT)
+BEGIN
+    DECLARE new_grade ENUM('Normal', 'VIP', 'VVIP', 'SVIP');
+    DECLARE accumulated_amount BIGINT;
+    -- 현재 누적 결제 금액 가져오기
+    SELECT accumulated_amount INTO accumulated_amount
+    FROM Grade
+    WHERE customer_id = p_customer_id;
+    -- 새로운 등급 결정
+    IF accumulated_amount &gt;= 300000 THEN
+        SET new_grade = 'SVIP';
+    ELSEIF accumulated_amount &gt;= 100000 THEN
+        SET new_grade = 'VVIP';
+    ELSEIF accumulated_amount &gt;= 50000 THEN
+        SET new_grade = 'VIP';
+    ELSE
+        SET new_grade = 'Normal';
+    END IF;
+    -- 등급이 변경될 경우만 업데이트 (변경 이력도 기록)
+    IF (SELECT name FROM Grade WHERE customer_id = p_customer_id) != new_grade THEN
+        UPDATE Grade
+        SET name = new_grade,
+            last_update = NOW(),
+            reason = CONCAT('누적 결제 금액 변경: ', accumulated_amount, '원')
+        WHERE customer_id = p_customer_id;
+    END IF;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객의 누적 결제 금액(accumulated_amount)에 따라 등급을 자동으로 변경
+결제(Payment) 또는 취소(Payment_Cancel)가 발생하면, 누적 금액을 기준으로 등급을 갱신
+등급 변경 시 변경 내역(reason) 기록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateCustomerGrade</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 완료된 상담의 내용을 수정하지 못하도록 방지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
+CREATE TRIGGER AfterOnlinePaymentInsert
+AFTER INSERT ON online_payment
+FOR EACH ROW
+BEGIN
+    DECLARE point_rate INT;
+    DECLARE customer_grade ENUM('Normal', 'VIP', 'VVIP', 'SVIP');
+    -- 현재 고객의 등급 가져오기
+    SELECT name INTO customer_grade FROM Grade WHERE customer_id = (SELECT customer_id FROM online_order WHERE order_id = NEW.order_id);
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 등급별 포인트 적립율 설정
+    CASE customer_grade
+        WHEN 'Normal' THEN SET point_rate = 1;
+        WHEN 'VIP' THEN SET point_rate = 2;
+        WHEN 'VVIP' THEN SET point_rate = 3;
+        WHEN 'SVIP' THEN SET point_rate = 5;
+    END CASE;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 포인트 적립 (Earned 타입, 1년 후 소멸)
+    INSERT INTO Point (customer_id, total_amount, current_points, type, delta, total_points, date_time)
+    VALUES ((SELECT customer_id FROM online_order WHERE order_id = NEW.order_id), 
+            NEW.total_amount, 
+            FLOOR(NEW.total_amount * point_rate / 100), 
+            'Earned', 
+            FLOOR(NEW.total_amount * point_rate / 100), 
+            (SELECT SUM(delta) FROM Point WHERE customer_id = (SELECT customer_id FROM online_order WHERE order_id = NEW.order_id)), 
+            NOW());
+END //
+DELIMITER ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
+CREATE TRIGGER AfterOfflinePaymentInsert
+AFTER INSERT ON offline_payment
+FOR EACH ROW
+BEGIN
+    DECLARE point_rate INT;
+    DECLARE customer_grade ENUM('Normal', 'VIP', 'VVIP', 'SVIP');
+    -- 현재 고객의 등급 가져오기
+    SELECT name INTO customer_grade FROM Grade WHERE customer_id = (SELECT customer_id FROM offline_order WHERE order_id = NEW.order_id);
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 등급별 포인트 적립율 설정
+    CASE customer_grade
+        WHEN 'Normal' THEN SET point_rate = 1;
+        WHEN 'VIP' THEN SET point_rate = 2;
+        WHEN 'VVIP' THEN SET point_rate = 3;
+        WHEN 'SVIP' THEN SET point_rate = 5;
+    END CASE;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 포인트 적립 (Earned 타입, 1년 후 소멸)
+    INSERT INTO Point (customer_id, total_amount, current_points, type, delta, total_points, date_time)
+    VALUES ((SELECT customer_id FROM offline_order WHERE order_id = NEW.order_id), 
+            NEW.amount, 
+            FLOOR(NEW.amount * point_rate / 100), 
+            'Earned', 
+            FLOOR(NEW.amount * point_rate / 100), 
+            (SELECT SUM(delta) FROM Point WHERE customer_id = (SELECT customer_id FROM offline_order WHERE order_id = NEW.order_id)), 
+            NOW());
+END //
+DELIMITER ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
+CREATE TRIGGER AfterOnlineCancelInsert
+AFTER INSERT ON online_cancels
+FOR EACH ROW
+BEGIN
+    DECLARE point_rate INT;
+    DECLARE customer_grade ENUM('Normal', 'VIP', 'VVIP', 'SVIP');
+    -- 현재 고객의 등급 가져오기
+    SELECT name INTO customer_grade FROM Grade WHERE customer_id = (SELECT customer_id FROM online_order WHERE order_id = (SELECT order_id FROM online_payment WHERE online_payment_id = NEW.cancels_id));
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 등급별 포인트 차감율 설정
+    CASE customer_grade
+        WHEN 'Normal' THEN SET point_rate = 1;
+        WHEN 'VIP' THEN SET point_rate = 2;
+        WHEN 'VVIP' THEN SET point_rate = 3;
+        WHEN 'SVIP' THEN SET point_rate = 5;
+    END CASE;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 포인트 차감 (Used 타입으로 기록)
+    INSERT INTO Point (customer_id, type, delta, current_points, total_points, date_time)
+    VALUES ((SELECT customer_id FROM online_order WHERE order_id = (SELECT order_id FROM online_payment WHERE online_payment_id = NEW.cancels_id)), 
+            'Used', 
+            FLOOR(-NEW.cancel_amount * point_rate / 100), 
+            0, 
+            (SELECT total_points FROM Point WHERE customer_id = (SELECT customer_id FROM online_order WHERE order_id = (SELECT order_id FROM online_payment WHERE online_payment_id = NEW.cancels_id)) ORDER BY date_time DESC LIMIT 1) - FLOOR(NEW.cancel_amount * point_rate / 100), 
+            CURRENT_TIMESTAMP);
+END //
+DELIMITER ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
+CREATE TRIGGER AfterOfflineCancelInsert
+AFTER INSERT ON offline_cancels
+FOR EACH ROW
+BEGIN
+    DECLARE point_rate INT;
+    DECLARE customer_grade ENUM('Normal', 'VIP', 'VVIP', 'SVIP');
+    -- 현재 고객의 등급 가져오기
+    SELECT name INTO customer_grade FROM Grade WHERE customer_id = (SELECT customer_id FROM offline_order WHERE order_id = (SELECT order_id FROM offline_payment WHERE offline_payment_id = NEW.cancels_id));
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 등급별 포인트 차감율 설정
+    CASE customer_grade
+        WHEN 'Normal' THEN SET point_rate = 1;
+        WHEN 'VIP' THEN SET point_rate = 2;
+        WHEN 'VVIP' THEN SET point_rate = 3;
+        WHEN 'SVIP' THEN SET point_rate = 5;
+    END CASE;
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 포인트 차감 (Used 타입으로 기록)
+    INSERT INTO Point (customer_id, type, delta, current_points, total_points, date_time)
+    VALUES ((SELECT customer_id FROM offline_order WHERE order_id = (SELECT order_id FROM offline_payment WHERE offline_payment_id = NEW.cancels_id)), 
+            'Used', 
+            FLOOR(-NEW.amount * point_rate / 100), 
+            0, 
+            (SELECT total_points FROM Point WHERE customer_id = (SELECT customer_id FROM offline_order WHERE order_id = (SELECT order_id FROM offline_payment WHERE offline_payment_id = NEW.cancels_id)) ORDER BY date_time DESC LIMIT 1) - FLOOR(NEW.amount * point_rate / 100), 
+            CURRENT_TIMESTAMP);
+END //
+DELIMITER ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call UpdateCustomerGrade();</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterOnlinePaymentInsert</t>
+  </si>
+  <si>
+    <t>AfterOfflinePaymentInsert</t>
+  </si>
+  <si>
+    <t>AfterOnlineCancelInsert</t>
+  </si>
+  <si>
+    <t>AfterOfflineCancelInsert</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1657,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1506,6 +1799,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -1668,7 +1967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1750,6 +2049,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1757,12 +2059,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1774,7 +2070,13 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2130,10 +2432,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:11">
       <c r="F2" s="5" t="s">
@@ -2160,13 +2462,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -3360,11 +3662,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7259E29-CB5E-4A5C-B0A7-CEF0D44896B8}">
-  <dimension ref="A2:K30"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3393,7 +3695,7 @@
         <v>222</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>161</v>
@@ -3527,155 +3829,189 @@
     </row>
     <row r="7" spans="1:11" ht="33">
       <c r="A7" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>190</v>
+        <v>215</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>262</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="F7" s="18">
+        <v>45728.845138888886</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="I7" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
       <c r="A8" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F8" s="18">
-        <v>45728.845138888886</v>
+        <v>45733.8125</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="33">
       <c r="A9" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>195</v>
+        <v>217</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>263</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="F9" s="18">
+        <v>45728.848611111112</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="I9" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="33">
+        <v>199</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="49.5">
       <c r="A10" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F10" s="18">
-        <v>45728.848611111112</v>
+        <v>45728.853472222225</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="49.5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33">
       <c r="A11" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F11" s="18">
-        <v>45728.853472222225</v>
+        <v>45733.8125</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="33">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="49.5">
       <c r="A12" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>203</v>
+        <v>220</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>263</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="F12" s="18">
+        <v>45728.859027777777</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="I12" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="49.5">
@@ -3693,22 +4029,22 @@
         <v>232</v>
       </c>
       <c r="F13" s="18">
-        <v>45728.859027777777</v>
+        <v>45729.814583333333</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>249</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="49.5">
@@ -3726,10 +4062,10 @@
         <v>232</v>
       </c>
       <c r="F14" s="18">
-        <v>45729.814583333333</v>
+        <v>45729.81527777778</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>60</v>
@@ -3741,7 +4077,7 @@
         <v>249</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5">
@@ -3759,10 +4095,10 @@
         <v>232</v>
       </c>
       <c r="F15" s="18">
-        <v>45729.81527777778</v>
+        <v>45729.819444444445</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>60</v>
@@ -3774,7 +4110,7 @@
         <v>249</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5">
@@ -3792,259 +4128,250 @@
         <v>232</v>
       </c>
       <c r="F16" s="18">
-        <v>45729.819444444445</v>
+        <v>45729.822222222225</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>60</v>
+        <v>253</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="49.5">
-      <c r="A17" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="18">
-        <v>45729.822222222225</v>
+      <c r="F17" s="32">
+        <v>45730.8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H17" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="F18" s="33">
-        <v>45730.8</v>
-      </c>
+      <c r="I17" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:11" ht="66">
+      <c r="A18" s="31"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>281</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="30"/>
     </row>
-    <row r="19" spans="1:11" ht="66">
-      <c r="A19" s="32"/>
+    <row r="19" spans="1:11" ht="33">
+      <c r="A19" s="31"/>
       <c r="B19" s="30"/>
       <c r="C19" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="34"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" ht="33">
-      <c r="A20" s="32"/>
-      <c r="B20" s="30"/>
+    <row r="20" spans="1:11" ht="49.5">
+      <c r="A20" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="C20" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" s="18">
+        <v>45733.866666666669</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="2" t="s">
+      <c r="E21" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-    </row>
-    <row r="21" spans="1:11" ht="49.5">
-      <c r="A21" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="H21" s="34"/>
+      <c r="I21" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="33">
+      <c r="A22" s="31"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="49.5">
+      <c r="A23" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="F22" s="18">
-        <v>45730.824305555558</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="29" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="33">
-      <c r="A23" s="32"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="30"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="29"/>
+      <c r="I23" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="49.5">
       <c r="A24" s="11" t="s">
         <v>260</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>276</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>232</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="49.5">
+        <v>280</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="33">
       <c r="A25" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>261</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>262</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>232</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>285</v>
+        <v>192</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+    <row r="29" spans="1:11">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="H17:H19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A24:A25 A3:A18 A21:A22">
+  <conditionalFormatting sqref="A3:A17 A23:A25 A20:A21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4062,10 +4389,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64511E29-CFFB-4B17-BA96-CA48335760D0}">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4082,138 +4409,170 @@
   <sheetData>
     <row r="2" spans="1:7" ht="17.25">
       <c r="A2" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="198">
       <c r="A3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>272</v>
       </c>
       <c r="F3" s="22">
         <v>45729</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="231">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>294</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>292</v>
       </c>
       <c r="F4" s="22">
         <v>45730</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="330">
-      <c r="B5" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>306</v>
+    <row r="5" spans="1:7" ht="409.5">
+      <c r="B5" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F5" s="22">
         <v>45731</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.5">
-      <c r="B6" s="35" t="s">
+    <row r="6" spans="1:7" ht="214.5">
+      <c r="B6" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>304</v>
+      <c r="C6" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>289</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F6" s="22">
         <v>45731</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="297">
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="1:7" ht="214.5">
+      <c r="B7" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>303</v>
+      <c r="C7" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F7" s="22">
         <v>45731</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="214.5">
-      <c r="B8" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>299</v>
+    <row r="8" spans="1:7" ht="409.5">
+      <c r="B8" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>303</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="F8" s="22">
-        <v>45731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="214.5">
-      <c r="B9" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>300</v>
-      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.5">
+      <c r="B9" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" s="22">
-        <v>45731</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.5">
+      <c r="B10" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.5">
+      <c r="B11" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.5">
+      <c r="B12" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC3798A-0244-4406-AAF2-DEDD81A73E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A879C6-958C-4C6B-9460-92DBF7891505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="317">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1295,10 +1295,6 @@
     AND current_points &gt; 0;
 END //
 DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/18 결과 확인하기</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1648,6 +1644,22 @@
   </si>
   <si>
     <t>AfterOfflineCancelInsert</t>
+  </si>
+  <si>
+    <t>Review_Product_View</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT oc.*, oo.* from Online_Cart oc 
+join online_order oo on oc.online_cart_id = oo.online_cart_id
+join online_payment op on oo.order_id = op.order_id
+where customer_id = 3283
+and approved_at between '2025-01-01' AND '2025-03-10';</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 기간의 주문 내역(1개)만 조회된다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1967,7 +1979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2052,6 +2064,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2064,20 +2079,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2432,10 +2441,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:11">
       <c r="F2" s="5" t="s">
@@ -2462,13 +2471,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -3664,9 +3673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7259E29-CB5E-4A5C-B0A7-CEF0D44896B8}">
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3808,23 +3817,34 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="49.5">
+    <row r="6" spans="1:11" ht="132">
       <c r="A6" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>186</v>
+        <v>315</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="18">
+        <v>45734.868750000001</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>187</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="33">
@@ -4145,10 +4165,10 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="31" t="s">
         <v>255</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -4157,59 +4177,59 @@
       <c r="D17" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="34">
         <v>45730.8</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="K17" s="30"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="66">
-      <c r="A18" s="31"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="2" t="s">
         <v>282</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="32"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="31"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="49.5">
       <c r="A20" s="11" t="s">
@@ -4236,55 +4256,53 @@
       <c r="I20" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K20" s="36" t="s">
-        <v>301</v>
-      </c>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>254</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="35"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="30" t="s">
+      <c r="H21" s="33"/>
+      <c r="I21" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="K21" s="34"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:11" ht="33">
-      <c r="A22" s="31"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="34"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33"/>
     </row>
     <row r="23" spans="1:11" ht="49.5">
       <c r="A23" s="11" t="s">
@@ -4333,7 +4351,7 @@
         <v>190</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>261</v>
@@ -4354,21 +4372,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="H17:H19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="H17:H19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A3:A17 A23:A25 A20:A21">
@@ -4391,8 +4409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64511E29-CFFB-4B17-BA96-CA48335760D0}">
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4506,7 +4524,7 @@
         <v>291</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>288</v>
@@ -4520,13 +4538,13 @@
         <v>261</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="409.5">
@@ -4534,11 +4552,11 @@
         <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="409.5">
@@ -4546,11 +4564,11 @@
         <v>262</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="409.5">
@@ -4558,10 +4576,10 @@
         <v>262</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="409.5">
@@ -4569,10 +4587,10 @@
         <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A879C6-958C-4C6B-9460-92DBF7891505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D99B7BB-ED93-4103-9688-F162D1A558B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -2076,9 +2076,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2086,6 +2083,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3674,8 +3674,8 @@
   <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4165,7 +4165,7 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="35" t="s">
         <v>256</v>
       </c>
       <c r="B17" s="31" t="s">
@@ -4180,13 +4180,13 @@
       <c r="E17" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="33">
         <v>45730.8</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="34" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="31" t="s">
@@ -4198,35 +4198,35 @@
       <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="66">
-      <c r="A18" s="32"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="31"/>
       <c r="C18" s="2" t="s">
         <v>282</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="31"/>
-      <c r="F18" s="34"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="35"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="32"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="31"/>
       <c r="C19" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="31"/>
-      <c r="F19" s="34"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="35"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
@@ -4259,7 +4259,7 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="35" t="s">
         <v>258</v>
       </c>
       <c r="B21" s="31" t="s">
@@ -4278,17 +4278,17 @@
       <c r="G21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H21" s="33"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="31" t="s">
         <v>296</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="K21" s="33"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="33">
-      <c r="A22" s="32"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="31"/>
       <c r="C22" s="2" t="s">
         <v>295</v>
@@ -4299,10 +4299,10 @@
       <c r="G22" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="33"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" ht="49.5">
       <c r="A23" s="11" t="s">
@@ -4372,6 +4372,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="E21:E22"/>
@@ -4381,12 +4387,6 @@
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A3:A17 A23:A25 A20:A21">

--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D99B7BB-ED93-4103-9688-F162D1A558B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31D1BE8-D36E-4C8A-9E38-B713E88F18A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -2073,6 +2073,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2083,9 +2086,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3674,8 +3674,8 @@
   <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4165,10 +4165,10 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="32" t="s">
         <v>255</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -4177,59 +4177,59 @@
       <c r="D17" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="34">
         <v>45730.8</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="K17" s="31"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="66">
-      <c r="A18" s="35"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="2" t="s">
         <v>282</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="35"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="49.5">
       <c r="A20" s="11" t="s">
@@ -4259,10 +4259,10 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="32" t="s">
         <v>254</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -4271,38 +4271,38 @@
       <c r="D21" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="32" t="s">
         <v>232</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="31" t="s">
+      <c r="H21" s="33"/>
+      <c r="I21" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="K21" s="32"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:11" ht="33">
-      <c r="A22" s="35"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="28"/>
       <c r="G22" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
     </row>
     <row r="23" spans="1:11" ht="49.5">
       <c r="A23" s="11" t="s">
@@ -4372,12 +4372,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="E21:E22"/>
@@ -4387,6 +4381,12 @@
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A3:A17 A23:A25 A20:A21">
@@ -4410,7 +4410,7 @@
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31D1BE8-D36E-4C8A-9E38-B713E88F18A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="10.105.228.52576"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -20,125 +14,93 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testcase!$A$7:$N$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>입력값</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>기타</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>기대결과</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Case ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>기능명세</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>분류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>소담소담 테스트 케이스 2025.3.10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>고객</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상품 및 재고</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>매장 및 직원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주문 및 결제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상품</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>직원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>매장</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주문</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>결제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>기능명세 옵션</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-CM-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-PR-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-OC-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-DM-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>배송</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-PR-002</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-PR-003</t>
@@ -160,321 +122,242 @@
   </si>
   <si>
     <t>매장 내 실시간 재고 확인 및 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>매장 내 발주 신청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>매장 내 결제 및 매출 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>매장별 매출 및 운영 보고서 제공</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-CM-002</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>고객 기본 정보 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>고객 등급 및 로열티 프로그램 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>고객 주문 이력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>고객 상담 및 피드백 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>고객 리뷰 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상품 등록 및 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상품 카테고리 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>실시간 재고 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>가격 및 할인 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>배송 장비 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>유통기한 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>배송 주문 접수 및 기사 할당</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>배송 우선순위 설정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"Column 'name' cannot be null" 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"가격은 음수일 수 없습니다."</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"Cannot add or update a child row" 외래키 오류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>조회 결과 없음 (Empty Result)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Product (name, category_id, main_image, detail_image) VALUES ('상품C', 9999, 'main.jpg', 'detail.jpg');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Product_Price (product_id, final_price) VALUES (1, -100);</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Product (category_id, main_image, detail_image, final_price) VALUES (1, 'main.jpg', 'detail.jpg', 1000);</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>실행시간</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>정상</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>예외</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>PASS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FAIL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Case 설명</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>실제결과</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>시나리오
  타입</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>테스트 
 결과</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상품 가격이 0원 이하인 경우 조회를 시도한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM Product_Price WHERE final_price &lt;= 0;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>조회 결과 없음 (정상 데이터는 1원 이상이어야 함)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"Invalid column type" 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UPDATE Product SET expire_date = '2020-01-01' WHERE product_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"유효기간은 현재 날짜 이후여야 합니다."</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>이미 연결된 가격 정보가 있는 상품을 삭제한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DELETE FROM Product WHERE product_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"Cannot delete or update a parent row" 외래키 오류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>결제 처리 및 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주문 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주문 통계 및 분석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주문 이력 관리 및 분석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주문 취소 및 변경 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM Warehouse_Inventory WHERE product_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>현재 재고 수량이 올바르게 표시된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Warehouse_Orders_Log (request_id, status) VALUES (1, '입고 완료');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UPDATE Warehouse_Inventory SET quantity = quantity - 5 WHERE product_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Product_Price (product_id, current_price, final_price, reason) VALUES (1, 1000, 900, '할인 적용');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>할인율이 100% 초과 또는 음수일 때 오류가 발생한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Discounts (rate) VALUES (110);</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM Product WHERE capacity_value = '문자';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>변동 로그에 '입고 완료' 상태가 기록된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>재고가 감소하고 출고 로그가 남는다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>가격 변동 로그에 "할인 적용" 사유가 기록된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"할인율은 0 ~ 100% 사이여야 합니다." 오류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>가격을 음수 값으로 등록한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상품 이름이 없는 상태에서 상품을 등록한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>존재하지 않는 상품 ID로 조회를 시도한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상품 용량 값에 숫자가 아닌 값을 입력해 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>존재하지 않는 카테고리 ID를 입력한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>특정 상품의 실시간 재고를 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>입고 시 재고 변동 로그가 생성된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>출고 요청 시 상품 재고가 감소한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상품 가격이 변경될 때 이력이 남는다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>유효기간을 과거 날짜로 업데이트한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Warehouse_Orders_Requests (warehouse_id, type, status) VALUES (1, '입고', '입고 완료');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>입고 완료 시 재고 및 로그가 갱신된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>새로운 상품 입고 시 재고와 이력 정보가 갱신된다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>유통기한이 지난 상품이 자동으로 삭제되는지 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Product (name, expire_date) VALUES ('테스트상품', DATE_SUB(NOW(), INTERVAL 1 DAY));</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>자동 삭제되고, 조회 시 결과 없음</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CALL sp_delete_expired_products(); SELECT * FROM Product WHERE expire_date &lt; NOW();</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>만료 상품이 모두 삭제되어야 한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>이벤트 스케줄러 동작</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-PR-009</t>
@@ -505,27 +388,21 @@
   </si>
   <si>
     <t>TC-EM-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>직원 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>신규 직원 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Employees (name, phone, hire_date, salary, role, location_type, insurance) VALUES ('홍길동', '010-1234-5678', '2024-03-10', 3000000, '매장 직원', '매장', 1);</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>직원이 정상적으로 등록됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>급여를 음수로 입력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Employees (name, phone, hire_date, salary, role, location_type, insurance) VALUES ('김철수', '010-9999-8888', '2024-03-10', -500000, '매장 직원', '매장', 1);</t>
@@ -535,63 +412,48 @@
   </si>
   <si>
     <t>상품 출고 시 재고 차감</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">	UPDATE Store_Inventory SET quantity = quantity - 10 WHERE store_id = 1 AND product_id = 5;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 상품의 재고가 감소</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"급여는 음수가 될 수 없습니다." 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>현재 재고 수량이 출력됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>매장에서 물류센터로 발주 요청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>특정 매장의 특정 상품 재고 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Store_Order_Requests (store_id, quantity, status) VALUES (1, 100, '요청');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>발주 요청이 정상 등록됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>수량 없이 요청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Store_Order_Requests (store_id, status) VALUES (1, '요청');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"Column 'quantity' cannot be null" 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>매장에서 상품 결제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Payments (store_id, total_amount, payment_method) VALUES (1, 50000, '카드');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>결제 정보가 정상 등록됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-EM-003</t>
@@ -619,89 +481,68 @@
   </si>
   <si>
     <t>결제 금액을 음수로 입력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">	INSERT INTO Payments (store_id, total_amount, payment_method) VALUES (1, -10000, '현금');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"결제 금액은 음수가 될 수 없습니다." 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>특정 매장의 일별 매출 보고서 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">	SELECT store_id, SUM(total_amount) AS total_sales FROM Payments WHERE store_id = 1 AND created_at BETWEEN '2024-03-01' AND '2024-03-10' GROUP BY store_id;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>매출 데이터가 정상적으로 조회됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>존재하지 않는 매장의 매출 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">		SELECT store_id, SUM(total_amount) AS total_sales FROM Payments WHERE store_id = 999;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"Query affected 0 rows" 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Test ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>테스트 설명</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>실행자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상태</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>예상결과</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>배송기사 상태값이 배송가능이 아닌경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Delivery (driver_id) SELECT driver_id
 FROM Delivery_driver WHERE status != '근무가능';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"해당 기사는 근무가 가능하지 않습니다."</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>배송차량 상태값이 배송가능이 아닌경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Delivery_Car (Car_id) SELECT Car_id
 FROM Delivery_Car WHERE status != '배송가능';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"해당 차량은 배차가 가능하지 않습니다."</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>배송기사가 자신의 id로 배송해야할 리스트를 출력하는 경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SELECT do.*
@@ -712,31 +553,25 @@
 ORDER BY 
     do.request_datetime IS NULL,  
     do.request_datetime ASC;     </t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>날짜가 낮은순(우선순위)항목이 
 내림차순으로 배송중인 항목만 출력된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>배송 데이터 백업 및 API 개발</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>배송완료 상태값을 변경시도</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UPDATE Delivery
 SET status = '배송중'
 WHERE delivery_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>배송완료된 데이터는 배송중으로
  상태값 변경이 불가</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-DM-002</t>
@@ -749,131 +584,99 @@
   </si>
   <si>
     <t>고객의 기본 정보를 등록할 때 필수 항목을 누락한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Customer (name, email, phone, login_type) VALUES ('홍길동', NULL, '010-1234-5678', 'Form');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"이메일은 필수 입력 값입니다." 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>존재하지 않는 고객 ID로 고객 정보를 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>조회 결과 없음</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>특정 고객의 주문 내역을 기간별로 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM Orders WHERE customer_id = 1 AND order_date BETWEEN '2025-01-01' AND '2025-03-10';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 기간의 주문 내역만 조회된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>존재하지 않는 주문 ID로 조회를 시도한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM Orders WHERE order_id = 9999;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>누적 결제 금액에 따라 고객 등급이 자동으로 변경된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UPDATE Grade SET accumulated_amount = 1000000 WHERE customer_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>누적 금액에 따라 'VIP' 등급으로 변경됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>특정 고객의 상담 내역을 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 고객의 상담 내역이 모두 조회된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상담이 답변 완료 상태일 때 삭제를 시도한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DELETE FROM QnA WHERE qna_id = 1 AND status = 'Completed';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"답변 완료된 상담은 삭제할 수 없습니다." 오류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>직원이 본인이 응대한 상담 내역을 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 직원이 응대한 상담 내역만 조회됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>직원이 상담에 대한 답변을 등록한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UPDATE QnA SET employee_id = 10, answer_content = '답변 완료', answer_time = NOW(), status = 'Completed' WHERE qna_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상담이 'Completed' 상태로 업데이트됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>직원이 이미 완료된 상담의 답변을 수정하려고 한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UPDATE QnA SET answer_content = '수정된 답변' WHERE qna_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"답변 완료된 상담은 수정할 수 없습니다." 오류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>특정 기간 동안 접수된 상담 유형별 통계를 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELECT status, COUNT(*) FROM QnA WHERE inquiry_time BETWEEN '2025-01-01' AND '2025-03-01' GROUP BY status;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상태별 상담 접수 건수가 올바르게 집계됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>별점이 1~5 범위를 벗어난 경우 오류가 발생한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Review (customer_id, product_id, star, content) VALUES (1, 10, 6, '별점 초과');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>"별점은 1에서 5 사이여야 합니다." 오류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-CM-003</t>
@@ -907,136 +710,105 @@
   </si>
   <si>
     <t>SQL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>개선 사항</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1 row(s) affected</t>
   </si>
   <si>
     <t>쿼리 실행 시간</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>테스트 시간</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0.000 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0.016 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM Product WHERE product_id = 9999999;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0 row(s) returned</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0.016 sec</t>
   </si>
   <si>
     <t>최은우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Error Code: 1048. Column 'email' cannot be null</t>
   </si>
   <si>
     <t>SELECT * FROM Customer WHERE customer_id = 500001;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>주문 데이터 다 안 들어가서 테스트 케이스 불가</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>프로시저 필요</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM QnA WHERE customer_id = 187436;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 고객의 상담 내역이 모두 조회됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 고객의 상담 내역(12개)이 모두 조회됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM QnA WHERE employee_id = 980093;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 직원이 응대한 상담 내역(7개)만 조회됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.203 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>inquiry_time, status 칼럼에 각각 단일 인덱스 생성</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>4.328 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>status 인덱스 삭제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>27.156 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>inquiry_time, status 복합 인덱스 생성</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상태별 상담 접수 건수가 올바르게 집계되며 실행 시간 1초 미만</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상태별 상담 접수 건수가 올바르게 집계되었으나 실행 시간 초과</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>25.547 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>원래 쿼리 그대로 유지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>보류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2.078 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>특정 상품의 리뷰를 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>회원가입 시 고객 등급이 Normal로 자동 생성되는지 확인한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-CM-013</t>
@@ -1055,43 +827,33 @@
   </si>
   <si>
     <t>PROCEDURE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TRIGGER</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>생성날짜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상세내용</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>목적</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>프로시저/트리거 이름</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>속성</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>프로시저/트리거 ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TC-CM-PT-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DELIMITER // 
@@ -1103,26 +865,21 @@
 VALUES (NEW.customer_id, 'Normal', 0, '신규 고객 가입 시 기본 등급 생성');
 END //
 DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>회원가입 시 고객 등급이 Normal로 자동 생성</t>
   </si>
   <si>
     <t>문서 링크</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>결제 취소 시 적립된 포인트가 정상적으로 차감되는지 확인한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>결제 완료 시 고객 등급에 따라 포인트가 적립되는지 확인한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>포인트가 소멸 기간이 지나면 자동으로 소멸되는지 확인한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1133,7 +890,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
       </rPr>
       <t>Grade</t>
     </r>
@@ -1142,49 +898,37 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 테이블에서 확인 가능)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>소멸기간 지난 포인트가 자동으로 Expired 타입으로 전환됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>VIP 고객(적립률 2%)이므로 2000 포인트 적립됨 (Point 테이블에서 확인 가능)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>VIP 고객이므로 5만원 환불 시 1000 포인트 차감됨 (Point 테이블에서 확인 가능)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM Grade WHERE customer_id = LAST_INSERT_ID();</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>INSERT INTO Customer (name, email, phone, login_type) VALUES
 ('정포미', 'nyam11@test.com', '010-0123-4567', 'Kakao');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>trg_after_customer_insert</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Review_Product_View</t>
   </si>
   <si>
     <t>성능 개선을 위해 상품명을 바로 확인할 수 있는 view 생성</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>VIEW</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DELIMITER //
@@ -1198,7 +942,6 @@
     END IF;
 END //
 DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DELIMITER //
@@ -1212,27 +955,21 @@
     END IF;
 END //
 DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>답변 완료된 상담이 삭제되지 않도록 방지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>prevent_delete_completed_qna</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>prevent_update_completed_qna</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EVENT SCHEDULER</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0.015 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CREATE VIEW Review_Product_View AS
@@ -1249,27 +986,22 @@
 JOIN Online_Cart_Product ocp ON r.product_id = ocp.product_id
 JOIN Warehouse_Inventory wi ON ocp.inventory_id = wi.inventory_id
 JOIN Product p ON wi.product_id = p.product_id;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM Review_Product_View where product_id = 6681;</t>
   </si>
   <si>
     <t>해당 상품(product_id=6681)에 대한 모든 리뷰가 조회됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 상품(product_id=6681)에 대한 모든 리뷰(4개)가 조회됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Expire_Points_Event</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Expire_Points_Event
 SELECT * FROM Point WHERE customer_id=1 AND type='Expired';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SET GLOBAL event_scheduler = ON;
@@ -1295,7 +1027,6 @@
     AND current_points &gt; 0;
 END //
 DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DELIMITER //
@@ -1327,21 +1058,17 @@
     END IF;
 END //
 DELIMITER ;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>고객의 누적 결제 금액(accumulated_amount)에 따라 등급을 자동으로 변경
 결제(Payment) 또는 취소(Payment_Cancel)가 발생하면, 누적 금액을 기준으로 등급을 갱신
 등급 변경 시 변경 내역(reason) 기록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UpdateCustomerGrade</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>답변 완료된 상담의 내용을 수정하지 못하도록 방지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1361,7 +1088,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1370,9 +1096,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 등급별 포인트 적립율 설정
     CASE customer_grade
@@ -1388,7 +1111,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1397,9 +1119,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 포인트 적립 (Earned 타입, 1년 후 소멸)
     INSERT INTO Point (customer_id, total_amount, current_points, type, delta, total_points, date_time)
@@ -1413,7 +1132,6 @@
 END //
 DELIMITER ;</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1433,7 +1151,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1442,9 +1159,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 등급별 포인트 적립율 설정
     CASE customer_grade
@@ -1460,7 +1174,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1469,9 +1182,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 포인트 적립 (Earned 타입, 1년 후 소멸)
     INSERT INTO Point (customer_id, total_amount, current_points, type, delta, total_points, date_time)
@@ -1485,7 +1195,6 @@
 END //
 DELIMITER ;</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1505,7 +1214,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1514,9 +1222,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 등급별 포인트 차감율 설정
     CASE customer_grade
@@ -1532,7 +1237,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1541,9 +1245,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 포인트 차감 (Used 타입으로 기록)
     INSERT INTO Point (customer_id, type, delta, current_points, total_points, date_time)
@@ -1556,7 +1257,6 @@
 END //
 DELIMITER ;</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1576,7 +1276,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1585,9 +1284,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 등급별 포인트 차감율 설정
     CASE customer_grade
@@ -1603,7 +1299,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1612,9 +1307,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 포인트 차감 (Used 타입으로 기록)
     INSERT INTO Point (customer_id, type, delta, current_points, total_points, date_time)
@@ -1627,11 +1319,9 @@
 END //
 DELIMITER ;</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Call UpdateCustomerGrade();</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AfterOnlinePaymentInsert</t>
@@ -1647,7 +1337,6 @@
   </si>
   <si>
     <t>Review_Product_View</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SELECT oc.*, oo.* from Online_Cart oc 
@@ -1655,276 +1344,463 @@
 join online_payment op on oo.order_id = op.order_id
 where customer_id = 3283
 and approved_at between '2025-01-01' AND '2025-03-10';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>해당 기간의 주문 내역(1개)만 조회된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>select g.name, c.name '고객 이름', q.inquiry_time, q.inquiry_content, q.image, q.status,
+	e.name '담당자 이름', q.answer_time, q.answer_content
+from customer c
+join qna q on c.customer_id = q.customer_id
+join employees e on q.employee_id = e.employee_id
+join grade g on c.customer_id = g.customer_id
+where g.name = 'SVIP'
+order by inquiry_time desc
+limit 20;</t>
+  </si>
+  <si>
+    <t>170.250 sec</t>
+  </si>
+  <si>
+    <t>고객 등급이 SVIP인 회원의 문의사항을 모아서 조회할 수 있음</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="29">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF9C5700"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF9C5700"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF0070C0"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial Unicode MS"/>
+      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="12.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Segoe UI Symbol"/>
+      <color theme="1"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color theme="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="15.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color theme="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color theme="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.399950"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF9D1F3"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.150000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1935,51 +1811,254 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1989,10 +2068,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
@@ -2010,25 +2089,25 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2037,28 +2116,28 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2073,53 +2152,108 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="6" builtinId="30"/>
     <cellStyle name="20% - 강조색2" xfId="7" builtinId="34"/>
     <cellStyle name="20% - 강조색3" xfId="8" builtinId="38"/>
     <cellStyle name="20% - 강조색4" xfId="9" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="43" builtinId="46"/>
     <cellStyle name="20% - 강조색6" xfId="10" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="31" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="34" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="37" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="40" builtinId="43"/>
     <cellStyle name="40% - 강조색5" xfId="12" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="32" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="35" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="38" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="41" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="44" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
     <cellStyle name="강조색1" xfId="5" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="33" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="36" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="39" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="42" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="45" builtinId="49"/>
+    <cellStyle name="경고문" xfId="20" builtinId="11"/>
+    <cellStyle name="계산" xfId="28" builtinId="22"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="메모" xfId="19" builtinId="10"/>
+    <cellStyle name="백분율" xfId="15" builtinId="5"/>
     <cellStyle name="보통" xfId="3" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="29" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="13" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="16" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="30" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="요약" xfId="4" builtinId="25"/>
+    <cellStyle name="입력" xfId="26" builtinId="20"/>
+    <cellStyle name="제목" xfId="21" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="22" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="23" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="24" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="25" builtinId="19"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
+    <cellStyle name="출력" xfId="27" builtinId="21"/>
+    <cellStyle name="통화" xfId="14" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="17" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="11" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFF9D1F3"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>88265</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>374015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17631410" y="13829030"/>
+          <a:ext cx="8991600" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2418,7 +2552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2426,18 +2560,18 @@
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="15.25" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="45.875" customWidth="1"/>
-    <col min="7" max="7" width="41.375" customWidth="1"/>
-    <col min="8" max="8" width="23.375" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="15.25500011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="30.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="37.00500107" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="9.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="45.88000107" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="41.38000107" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="23.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="11.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="16.87999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2470,7 +2604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.25" thickBot="1">
+    <row r="5" spans="1:11" ht="17.250000">
       <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
@@ -2488,15 +2622,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.25" thickTop="1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" ht="17.250000">
+      <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="33">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="33.000000">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="49.5">
+    <row r="8" spans="1:11" ht="49.500000">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -2557,7 +2691,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="33">
+    <row r="9" spans="1:11" ht="33.000000">
       <c r="A9" s="11" t="s">
         <v>35</v>
       </c>
@@ -2581,7 +2715,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="49.5">
+    <row r="10" spans="1:11" ht="49.500000">
       <c r="A10" s="11" t="s">
         <v>212</v>
       </c>
@@ -2629,7 +2763,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="33">
+    <row r="12" spans="1:11" ht="33.000000">
       <c r="A12" s="11" t="s">
         <v>214</v>
       </c>
@@ -2677,7 +2811,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="33">
+    <row r="14" spans="1:11" ht="33.000000">
       <c r="A14" s="11" t="s">
         <v>216</v>
       </c>
@@ -2701,7 +2835,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="33">
+    <row r="15" spans="1:11" ht="33.000000">
       <c r="A15" s="11" t="s">
         <v>217</v>
       </c>
@@ -2725,7 +2859,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="49.5">
+    <row r="16" spans="1:11" ht="49.500000">
       <c r="A16" s="11" t="s">
         <v>218</v>
       </c>
@@ -2749,7 +2883,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="33">
+    <row r="17" spans="1:11" ht="33.000000">
       <c r="A17" s="11" t="s">
         <v>219</v>
       </c>
@@ -2773,7 +2907,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="49.5">
+    <row r="18" spans="1:11" ht="49.500000">
       <c r="A18" s="11" t="s">
         <v>220</v>
       </c>
@@ -2797,7 +2931,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="33">
+    <row r="19" spans="1:11" ht="33.000000">
       <c r="A19" s="11" t="s">
         <v>221</v>
       </c>
@@ -2823,7 +2957,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="33">
+    <row r="20" spans="1:11" ht="33.000000">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
@@ -2856,7 +2990,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="49.5">
+    <row r="21" spans="1:11" ht="49.500000">
       <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
@@ -2889,7 +3023,7 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="33">
+    <row r="22" spans="1:11" ht="33.000000">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -2922,7 +3056,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="33">
+    <row r="23" spans="1:11" ht="33.000000">
       <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
@@ -2955,7 +3089,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="33">
+    <row r="24" spans="1:11" ht="33.000000">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
@@ -2988,7 +3122,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="33">
+    <row r="25" spans="1:11" ht="33.000000">
       <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
@@ -3013,7 +3147,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="49.5">
+    <row r="26" spans="1:11" ht="49.500000">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -3036,7 +3170,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="33">
+    <row r="27" spans="1:11" ht="33.000000">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
@@ -3059,7 +3193,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="33">
+    <row r="28" spans="1:11" ht="33.000000">
       <c r="A28" s="7" t="s">
         <v>110</v>
       </c>
@@ -3082,7 +3216,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="33">
+    <row r="29" spans="1:11" ht="33.000000">
       <c r="A29" s="10" t="s">
         <v>111</v>
       </c>
@@ -3105,7 +3239,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="49.5">
+    <row r="30" spans="1:11" ht="49.500000">
       <c r="A30" s="7" t="s">
         <v>112</v>
       </c>
@@ -3128,7 +3262,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="49.5">
+    <row r="31" spans="1:11" ht="49.500000">
       <c r="A31" s="10" t="s">
         <v>113</v>
       </c>
@@ -3151,7 +3285,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="33">
+    <row r="32" spans="1:11" ht="33.000000">
       <c r="A32" s="7" t="s">
         <v>114</v>
       </c>
@@ -3174,7 +3308,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="33">
+    <row r="33" spans="1:11" ht="33.000000">
       <c r="A33" s="10" t="s">
         <v>115</v>
       </c>
@@ -3199,7 +3333,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="33">
+    <row r="34" spans="1:11" ht="33.000000">
       <c r="A34" s="7" t="s">
         <v>116</v>
       </c>
@@ -3222,7 +3356,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="33">
+    <row r="35" spans="1:11" ht="33.000000">
       <c r="A35" s="10" t="s">
         <v>117</v>
       </c>
@@ -3245,7 +3379,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="66">
+    <row r="36" spans="1:11" ht="66.000000">
       <c r="A36" s="8" t="s">
         <v>119</v>
       </c>
@@ -3268,7 +3402,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="66">
+    <row r="37" spans="1:11" ht="66.000000">
       <c r="A37" s="8" t="s">
         <v>118</v>
       </c>
@@ -3291,7 +3425,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="33">
+    <row r="38" spans="1:11" ht="33.000000">
       <c r="A38" s="8" t="s">
         <v>142</v>
       </c>
@@ -3314,7 +3448,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="33">
+    <row r="39" spans="1:11" ht="33.000000">
       <c r="A39" s="8" t="s">
         <v>143</v>
       </c>
@@ -3337,7 +3471,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="33">
+    <row r="40" spans="1:11" ht="33.000000">
       <c r="A40" s="8" t="s">
         <v>144</v>
       </c>
@@ -3360,7 +3494,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="33">
+    <row r="41" spans="1:11" ht="33.000000">
       <c r="A41" s="8" t="s">
         <v>145</v>
       </c>
@@ -3383,7 +3517,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="33">
+    <row r="42" spans="1:11" ht="33.000000">
       <c r="A42" s="8" t="s">
         <v>146</v>
       </c>
@@ -3406,7 +3540,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="33">
+    <row r="43" spans="1:11" ht="33.000000">
       <c r="A43" s="8" t="s">
         <v>147</v>
       </c>
@@ -3429,7 +3563,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="66">
+    <row r="44" spans="1:11" ht="66.000000">
       <c r="A44" s="8" t="s">
         <v>148</v>
       </c>
@@ -3452,7 +3586,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="33">
+    <row r="45" spans="1:11" ht="33.000000">
       <c r="A45" s="8" t="s">
         <v>149</v>
       </c>
@@ -3514,7 +3648,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="33">
+    <row r="51" spans="1:7" ht="33.000000">
       <c r="A51" s="6" t="s">
         <v>22</v>
       </c>
@@ -3537,7 +3671,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="33">
+    <row r="52" spans="1:7" ht="33.000000">
       <c r="A52" s="6" t="s">
         <v>177</v>
       </c>
@@ -3560,7 +3694,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="132">
+    <row r="53" spans="1:7" ht="132.000000">
       <c r="A53" s="6" t="s">
         <v>178</v>
       </c>
@@ -3583,7 +3717,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="49.5">
+    <row r="54" spans="1:7" ht="49.500000">
       <c r="A54" s="6" t="s">
         <v>179</v>
       </c>
@@ -3628,18 +3762,18 @@
       <c r="A61" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:N7" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}"/>
+  <autoFilter ref="A7:N7"/>
   <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A8:A19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0.000000"/>
+        <cfvo type="percentile" val="50.000000"/>
+        <cfvo type="max" val="0.000000"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3649,9 +3783,9 @@
   <conditionalFormatting sqref="F2">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0.000000"/>
+        <cfvo type="percentile" val="50.000000"/>
+        <cfvo type="max" val="0.000000"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3659,41 +3793,42 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I20" location="Product!A3" display="FAIL" xr:uid="{807EAF35-E764-4257-B60E-15EF59B4DE49}"/>
-    <hyperlink ref="I22" location="Product!A6" display="PASS" xr:uid="{DEDD730C-C338-4627-8F85-E74D553BDBE7}"/>
-    <hyperlink ref="I21" location="Product!A5" display="PASS" xr:uid="{7E8BCDF1-B2B7-405F-B563-4FA74669AFEA}"/>
-    <hyperlink ref="I23" location="Product!A7" display="PASS" xr:uid="{623C1634-DA33-44B5-9A0A-982408E1032D}"/>
-    <hyperlink ref="I24" location="Product!A8" display="PASS" xr:uid="{E56AC82C-3B4A-4429-AD9F-B93E06CDAD20}"/>
+    <hyperlink location="Product!A3" display="FAIL" ref="I20"/>
+    <hyperlink location="Product!A6" display="PASS" ref="I22"/>
+    <hyperlink location="Product!A5" display="PASS" ref="I21"/>
+    <hyperlink location="Product!A7" display="PASS" ref="I23"/>
+    <hyperlink location="Product!A8" display="PASS" ref="I24"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7259E29-CB5E-4A5C-B0A7-CEF0D44896B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="32.875" customWidth="1"/>
-    <col min="10" max="10" width="36.75" customWidth="1"/>
-    <col min="11" max="11" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="10.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="26.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="43.13000107" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="8.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="7.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="16.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="6.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="32.88000107" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="36.75500107" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="32.75500107" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="33">
+    <row r="2" spans="1:11" ht="33.000000">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -3728,7 +3863,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="49.5">
+    <row r="3" spans="1:11" ht="49.500000">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -3743,7 +3878,7 @@
         <v>232</v>
       </c>
       <c r="F3" s="18">
-        <v>45728.804861111108</v>
+        <v>45728.8048611111</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>227</v>
@@ -3759,7 +3894,7 @@
       </c>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="33">
+    <row r="4" spans="1:11" ht="33.000000">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -3774,7 +3909,7 @@
         <v>232</v>
       </c>
       <c r="F4" s="18">
-        <v>45728.809027777781</v>
+        <v>45728.8090277778</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>227</v>
@@ -3790,7 +3925,7 @@
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" ht="49.5">
+    <row r="5" spans="1:11" ht="49.500000">
       <c r="A5" s="11" t="s">
         <v>212</v>
       </c>
@@ -3805,7 +3940,7 @@
         <v>232</v>
       </c>
       <c r="F5" s="18">
-        <v>45728.819444444445</v>
+        <v>45728.8194444444</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>60</v>
@@ -3817,7 +3952,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="132">
+    <row r="6" spans="1:11" ht="132.000000">
       <c r="A6" s="11" t="s">
         <v>212</v>
       </c>
@@ -3832,7 +3967,7 @@
         <v>232</v>
       </c>
       <c r="F6" s="18">
-        <v>45734.868750000001</v>
+        <v>45734.86875</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>227</v>
@@ -3847,7 +3982,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="33">
+    <row r="7" spans="1:11" ht="33.000000">
       <c r="A7" s="11" t="s">
         <v>215</v>
       </c>
@@ -3862,7 +3997,7 @@
         <v>232</v>
       </c>
       <c r="F7" s="18">
-        <v>45728.845138888886</v>
+        <v>45728.8451388889</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>228</v>
@@ -3877,7 +4012,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="33">
+    <row r="8" spans="1:11" ht="33.000000">
       <c r="A8" s="11" t="s">
         <v>216</v>
       </c>
@@ -3909,7 +4044,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="33">
+    <row r="9" spans="1:11" ht="33.000000">
       <c r="A9" s="11" t="s">
         <v>217</v>
       </c>
@@ -3924,7 +4059,7 @@
         <v>232</v>
       </c>
       <c r="F9" s="18">
-        <v>45728.848611111112</v>
+        <v>45728.8486111111</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>227</v>
@@ -3939,7 +4074,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="49.5">
+    <row r="10" spans="1:11" ht="49.500000">
       <c r="A10" s="11" t="s">
         <v>218</v>
       </c>
@@ -3954,7 +4089,7 @@
         <v>232</v>
       </c>
       <c r="F10" s="18">
-        <v>45728.853472222225</v>
+        <v>45728.8534722222</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>228</v>
@@ -3969,7 +4104,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="33">
+    <row r="11" spans="1:11" ht="33.000000">
       <c r="A11" s="11" t="s">
         <v>219</v>
       </c>
@@ -4001,7 +4136,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="49.5">
+    <row r="12" spans="1:11" ht="49.500000">
       <c r="A12" s="11" t="s">
         <v>220</v>
       </c>
@@ -4016,7 +4151,7 @@
         <v>232</v>
       </c>
       <c r="F12" s="18">
-        <v>45728.859027777777</v>
+        <v>45728.8590277778</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>242</v>
@@ -4034,7 +4169,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="49.5">
+    <row r="13" spans="1:11" ht="49.500000">
       <c r="A13" s="11" t="s">
         <v>220</v>
       </c>
@@ -4049,7 +4184,7 @@
         <v>232</v>
       </c>
       <c r="F13" s="18">
-        <v>45729.814583333333</v>
+        <v>45729.8145833333</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>244</v>
@@ -4067,7 +4202,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="49.5">
+    <row r="14" spans="1:11" ht="49.500000">
       <c r="A14" s="11" t="s">
         <v>220</v>
       </c>
@@ -4082,7 +4217,7 @@
         <v>232</v>
       </c>
       <c r="F14" s="18">
-        <v>45729.81527777778</v>
+        <v>45729.8152777778</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>246</v>
@@ -4100,7 +4235,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="49.5">
+    <row r="15" spans="1:11" ht="49.500000">
       <c r="A15" s="11" t="s">
         <v>220</v>
       </c>
@@ -4115,7 +4250,7 @@
         <v>232</v>
       </c>
       <c r="F15" s="18">
-        <v>45729.819444444445</v>
+        <v>45729.8194444444</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>250</v>
@@ -4133,7 +4268,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="49.5">
+    <row r="16" spans="1:11" ht="49.500000">
       <c r="A16" s="11" t="s">
         <v>220</v>
       </c>
@@ -4148,7 +4283,7 @@
         <v>232</v>
       </c>
       <c r="F16" s="18">
-        <v>45729.822222222225</v>
+        <v>45729.8222222222</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>253</v>
@@ -4165,10 +4300,10 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -4177,61 +4312,61 @@
       <c r="D17" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="18">
         <v>45730.8</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="1:11" ht="66">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="66.000000">
+      <c r="A18" s="11"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>282</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="34"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="33.000000">
+      <c r="A19" s="11"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="34"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="1:11" ht="49.5">
+      <c r="H19" s="15"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="49.500000">
       <c r="A20" s="11" t="s">
         <v>257</v>
       </c>
@@ -4248,7 +4383,7 @@
         <v>232</v>
       </c>
       <c r="F20" s="18">
-        <v>45733.866666666669</v>
+        <v>45733.8666666667</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>228</v>
@@ -4259,10 +4394,10 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="2" t="s">
         <v>254</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -4271,40 +4406,40 @@
       <c r="D21" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="32" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K21" s="33"/>
-    </row>
-    <row r="22" spans="1:11" ht="33">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="33.000000">
+      <c r="A22" s="11"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="32"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="28"/>
       <c r="G22" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
-    </row>
-    <row r="23" spans="1:11" ht="49.5">
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="49.500000">
       <c r="A23" s="11" t="s">
         <v>259</v>
       </c>
@@ -4323,7 +4458,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="49.5">
+    <row r="24" spans="1:11" ht="49.500000">
       <c r="A24" s="11" t="s">
         <v>260</v>
       </c>
@@ -4343,7 +4478,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="33">
+    <row r="25" spans="1:11" ht="33.000000">
       <c r="A25" s="11" t="s">
         <v>214</v>
       </c>
@@ -4364,6 +4499,23 @@
       </c>
       <c r="K25" s="20" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="198.000000">
+      <c r="C26" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4372,60 +4524,63 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="K21:K22"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A17 A23:A25 A20:A21">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0.000000"/>
+        <cfvo type="percentile" val="50.000000"/>
+        <cfvo type="max" val="0.000000"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64511E29-CFFB-4B17-BA96-CA48335760D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
-    <col min="5" max="5" width="101.875" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="12.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="22.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="31.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="101.87999725" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="19.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="23.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="14.63000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.250000">
       <c r="A2" s="23" t="s">
         <v>269</v>
       </c>
@@ -4448,7 +4603,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="198">
+    <row r="3" spans="1:7" ht="198.000000">
       <c r="A3" s="11" t="s">
         <v>270</v>
       </c>
@@ -4468,7 +4623,7 @@
         <v>45729</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="231">
+    <row r="4" spans="1:7" ht="231.000000">
       <c r="B4" s="27" t="s">
         <v>286</v>
       </c>
@@ -4485,7 +4640,7 @@
         <v>45730</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.5">
+    <row r="5" spans="1:7" ht="409.500000">
       <c r="B5" s="27" t="s">
         <v>292</v>
       </c>
@@ -4499,7 +4654,7 @@
         <v>45731</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="214.5">
+    <row r="6" spans="1:7" ht="214.500000">
       <c r="B6" s="27" t="s">
         <v>262</v>
       </c>
@@ -4516,7 +4671,7 @@
         <v>45731</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="214.5">
+    <row r="7" spans="1:7" ht="214.500000">
       <c r="B7" s="27" t="s">
         <v>262</v>
       </c>
@@ -4533,7 +4688,7 @@
         <v>45731</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="409.5">
+    <row r="8" spans="1:7" ht="409.500000">
       <c r="B8" s="27" t="s">
         <v>261</v>
       </c>
@@ -4547,11 +4702,11 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="409.5">
+    <row r="9" spans="1:7" ht="409.500000">
       <c r="B9" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>310</v>
       </c>
       <c r="D9" s="17"/>
@@ -4559,7 +4714,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="409.5">
+    <row r="10" spans="1:7" ht="409.500000">
       <c r="B10" s="27" t="s">
         <v>262</v>
       </c>
@@ -4571,22 +4726,22 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="409.5">
+    <row r="11" spans="1:7" ht="409.500000">
       <c r="B11" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>312</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="409.5">
+    <row r="12" spans="1:7" ht="409.500000">
       <c r="B12" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>313</v>
       </c>
       <c r="E12" s="17" t="s">
@@ -4594,19 +4749,20 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0.000000"/>
+        <cfvo type="percentile" val="50.000000"/>
+        <cfvo type="max" val="0.000000"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -3809,8 +3809,8 @@
   <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4505,9 +4505,7 @@
       <c r="C26" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="G26" s="2" t="s">
         <v>318</v>
       </c>

--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="10.105.228.52576"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0799383-0AE5-4752-BF46-CBE1489F2019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="945" yWindow="1350" windowWidth="23880" windowHeight="13665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -14,19 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testcase!$A$7:$N$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="356">
   <si>
     <t>입력값</t>
   </si>
@@ -748,12 +747,6 @@
     <t>SELECT * FROM Customer WHERE customer_id = 500001;</t>
   </si>
   <si>
-    <t>주문 데이터 다 안 들어가서 테스트 케이스 불가</t>
-  </si>
-  <si>
-    <t>프로시저 필요</t>
-  </si>
-  <si>
     <t>SELECT * FROM QnA WHERE customer_id = 187436;</t>
   </si>
   <si>
@@ -812,15 +805,6 @@
   </si>
   <si>
     <t>TC-CM-013</t>
-  </si>
-  <si>
-    <t>TC-CM-014</t>
-  </si>
-  <si>
-    <t>TC-CM-015</t>
-  </si>
-  <si>
-    <t>TC-CM-016</t>
   </si>
   <si>
     <t>TC-CM-017</t>
@@ -871,12 +855,6 @@
   </si>
   <si>
     <t>문서 링크</t>
-  </si>
-  <si>
-    <t>결제 취소 시 적립된 포인트가 정상적으로 차감되는지 확인한다.</t>
-  </si>
-  <si>
-    <t>결제 완료 시 고객 등급에 따라 포인트가 적립되는지 확인한다.</t>
   </si>
   <si>
     <t>포인트가 소멸 기간이 지나면 자동으로 소멸되는지 확인한다.</t>
@@ -898,18 +876,14 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 테이블에서 확인 가능)</t>
     </r>
   </si>
   <si>
     <t>소멸기간 지난 포인트가 자동으로 Expired 타입으로 전환됨</t>
-  </si>
-  <si>
-    <t>VIP 고객(적립률 2%)이므로 2000 포인트 적립됨 (Point 테이블에서 확인 가능)</t>
-  </si>
-  <si>
-    <t>VIP 고객이므로 5만원 환불 시 1000 포인트 차감됨 (Point 테이블에서 확인 가능)</t>
   </si>
   <si>
     <t>SELECT * FROM Grade WHERE customer_id = LAST_INSERT_ID();</t>
@@ -1088,6 +1062,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1096,6 +1071,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 등급별 포인트 적립율 설정
     CASE customer_grade
@@ -1111,6 +1088,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1119,6 +1097,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 포인트 적립 (Earned 타입, 1년 후 소멸)
     INSERT INTO Point (customer_id, total_amount, current_points, type, delta, total_points, date_time)
@@ -1151,6 +1131,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1159,6 +1140,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 등급별 포인트 적립율 설정
     CASE customer_grade
@@ -1174,6 +1157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1182,6 +1166,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 포인트 적립 (Earned 타입, 1년 후 소멸)
     INSERT INTO Point (customer_id, total_amount, current_points, type, delta, total_points, date_time)
@@ -1214,6 +1200,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1222,6 +1209,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 등급별 포인트 차감율 설정
     CASE customer_grade
@@ -1237,6 +1226,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1245,6 +1235,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 포인트 차감 (Used 타입으로 기록)
     INSERT INTO Point (customer_id, type, delta, current_points, total_points, date_time)
@@ -1276,6 +1268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1284,6 +1277,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 등급별 포인트 차감율 설정
     CASE customer_grade
@@ -1299,6 +1294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1307,6 +1303,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 포인트 차감 (Used 타입으로 기록)
     INSERT INTO Point (customer_id, type, delta, current_points, total_points, date_time)
@@ -1321,9 +1319,6 @@
     </r>
   </si>
   <si>
-    <t>Call UpdateCustomerGrade();</t>
-  </si>
-  <si>
     <t>AfterOnlinePaymentInsert</t>
   </si>
   <si>
@@ -1365,212 +1360,354 @@
   <si>
     <t>고객 등급이 SVIP인 회원의 문의사항을 모아서 조회할 수 있음</t>
   </si>
+  <si>
+    <t>TC-CM-PT-002</t>
+  </si>
+  <si>
+    <t>TC-CM-PT-003</t>
+  </si>
+  <si>
+    <t>TC-CM-PT-004</t>
+  </si>
+  <si>
+    <t>TC-CM-PT-005</t>
+  </si>
+  <si>
+    <t>TC-CM-PT-006</t>
+  </si>
+  <si>
+    <t>TC-CM-PT-007</t>
+  </si>
+  <si>
+    <t>TC-CM-PT-008</t>
+  </si>
+  <si>
+    <t>TC-CM-PT-009</t>
+  </si>
+  <si>
+    <t>TC-CM-PT-010</t>
+  </si>
+  <si>
+    <t>온라인 결제가 발생한 후, 고객의 등급에 따라 포인트를 자동으로 적립</t>
+  </si>
+  <si>
+    <t>오프라인 결제가 발생한 후 고객에게 등급에 따라 포인트를 자동 적립</t>
+  </si>
+  <si>
+    <t>온라인 결제 취소 시, 적립되었던 포인트를 고객 등급에 따라 자동 차감</t>
+  </si>
+  <si>
+    <t>오프라인 결제 취소 시, 적립된 포인트를 고객 등급에 따라 자동으로 차감</t>
+  </si>
+  <si>
+    <t>inquiry_time 인덱스 만들어서 강제로 사용하도록 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 등급이 'SVIP'인 고객의 최근 20개의 문의 내역을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select g.name, c.name '고객 이름', q.inquiry_time, q.inquiry_content, q.image, q.status,
+	e.name '담당자 이름', q.answer_time, q.answer_content
+from customer c
+join qna q on c.customer_id = q.customer_id
+join employees e on q.employee_id = e.employee_id
+join grade g on c.customer_id = g.customer_id
+where g.name = 'SVIP'
+order by inquiry_time desc
+limit 20;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.321 sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 등급이 SVIP인 회원의 문의사항을 모아서 조회할 수 있으나 시간 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 등급이 SVIP인 회원의 문의사항을 모아서 조회할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 유형별 문의 최다 고객 TOP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WITH InquiryRanking AS (
+    SELECT
+        q.type AS inquiry_type,
+        c.customer_id,
+        c.name AS customer_name,
+        COUNT(q.qna_id) AS inquiry_count,
+        ROW_NUMBER() OVER (PARTITION BY q.type ORDER BY COUNT(q.qna_id) DESC) AS rank_no
+    FROM Customer c
+    INNER JOIN QnA q ON c.customer_id = q.customer_id
+    GROUP BY q.type, c.customer_id, c.name
+)
+SELECT
+    inquiry_type,
+    customer_id,
+    customer_name,
+    inquiry_count
+FROM InquiryRanking
+WHERE rank_no &lt;= 3
+ORDER BY
+    FIELD(inquiry_type, '회원', '주문/결제/배송', '취소/교환/반품', '상품', '포인트/할인', '기타'),
+    rank_no ASC;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.594 sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 유형별 문의 최다 고객 TOP3의 고객명이 조회됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 유형별 문의 최다 고객 TOP3의 고객명이 조회되었으나 시간 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_id, type 복합 인덱스 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000 sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급별로 문의사항 유형별 문의 개수</t>
+  </si>
+  <si>
+    <t>WITH inquiry_count AS ( SELECT cu.grade, q.type, COUNT(*) AS cnt FROM qna q JOIN customer cu ON q.customer_id = cu.customer_id GROUP BY cu.grade, q.type ), grades AS ( SELECT DISTINCT grade FROM customer ), types AS ( SELECT '회원' AS type UNION ALL SELECT '주문/결제/배송' UNION ALL SELECT '취소/교환/반품' UNION ALL SELECT '상품' UNION ALL SELECT '포인트/할인' UNION ALL SELECT '기타' ) SELECT g.grade, t.type, COALESCE(ic.cnt, 0) AS 문의건수 FROM grades g CROSS JOIN types t LEFT JOIN inquiry_count ic ON ic.grade = g.grade AND ic.type = t.type ORDER BY FIELD(g.grade, 'SVIP', 'VVIP', 'VIP', 'Normal'), FIELD(t.type, '회원', '주문/결제/배송', '취소/교환/반품', '상품', '포인트/할인', '기타');</t>
+  </si>
+  <si>
+    <t>1.953 sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급별로 문의사항 유형별 문의 개수 조회할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급별로 문의사항 유형별 문의 개수 조회할 수 있으나 시간 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 테이블 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WITH grades AS ( SELECT 'SVIP' AS grade UNION ALL SELECT 'VVIP' UNION ALL SELECT 'VIP' UNION ALL SELECT 'Normal' ), types AS ( SELECT '회원' AS type UNION ALL SELECT '주문/결제/배송' UNION ALL SELECT '취소/교환/반품' UNION ALL SELECT '상품' UNION ALL SELECT '포인트/할인' UNION ALL SELECT '기타' ) SELECT g.grade, t.type, COALESCE(qs.inquiry_count, 0) AS inquiry_count FROM grades g CROSS JOIN types t LEFT JOIN qna_summary qs ON qs.grade = g.grade AND qs.type = t.type ORDER BY FIELD(g.grade, 'SVIP', 'VVIP', 'VIP', 'Normal'), FIELD(t.type, '회원', '주문/결제/배송', '취소/교환/반품', '상품', '포인트/할인', '기타');</t>
+  </si>
+  <si>
+    <t>통계 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_summary</t>
+  </si>
+  <si>
+    <t>고객 등급과 문의 유형별로 문의 수를 집계하여 qna_summary 테이블에 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO qna_summary (grade, type, inquiry_count)
+SELECT 
+  cu.grade,
+  q.type,
+  COUNT(*) AS inquiry_count
+FROM qna q
+JOIN customer cu ON q.customer_id = cu.customer_id
+GROUP BY cu.grade, q.type;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-CM-PT-011</t>
+  </si>
+  <si>
+    <t>TC-CM-014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-CM-015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-CM-016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-CM-018</t>
+  </si>
+  <si>
+    <t>TC-CM-019</t>
+  </si>
+  <si>
+    <t>TC-CM-020</t>
+  </si>
+  <si>
+    <t>TC-CM-021</t>
+  </si>
+  <si>
+    <t>TC-CM-022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="17">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF006100"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF9C5700"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF9C5700"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF0070C0"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF006100"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Segoe UI Symbol"/>
-      <color theme="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1598,31 +1735,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1646,7 +1783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399950"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1658,149 +1795,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.150000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1811,254 +1817,54 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2068,10 +1874,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
@@ -2089,25 +1895,25 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2116,144 +1922,94 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="14">
     <cellStyle name="20% - 강조색1" xfId="6" builtinId="30"/>
     <cellStyle name="20% - 강조색2" xfId="7" builtinId="34"/>
     <cellStyle name="20% - 강조색3" xfId="8" builtinId="38"/>
     <cellStyle name="20% - 강조색4" xfId="9" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="43" builtinId="46"/>
     <cellStyle name="20% - 강조색6" xfId="10" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="31" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="34" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="37" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="40" builtinId="43"/>
     <cellStyle name="40% - 강조색5" xfId="12" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="32" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="35" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="38" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="41" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="44" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
     <cellStyle name="강조색1" xfId="5" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="33" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="36" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="39" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="42" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="45" builtinId="49"/>
-    <cellStyle name="경고문" xfId="20" builtinId="11"/>
-    <cellStyle name="계산" xfId="28" builtinId="22"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
-    <cellStyle name="메모" xfId="19" builtinId="10"/>
-    <cellStyle name="백분율" xfId="15" builtinId="5"/>
     <cellStyle name="보통" xfId="3" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="29" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="13" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="16" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="30" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="요약" xfId="4" builtinId="25"/>
-    <cellStyle name="입력" xfId="26" builtinId="20"/>
-    <cellStyle name="제목" xfId="21" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="22" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="23" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="24" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="25" builtinId="19"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
-    <cellStyle name="출력" xfId="27" builtinId="21"/>
-    <cellStyle name="통화" xfId="14" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="17" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="11" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>12065</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>88265</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>374015</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17631410" y="13829030"/>
-          <a:ext cx="8991600" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2552,7 +2308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2560,25 +2316,25 @@
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="15.25500011" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="30.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="37.00500107" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="9.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="45.88000107" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="41.38000107" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" width="23.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="11.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" width="16.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="15.25" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="45.875" customWidth="1"/>
+    <col min="7" max="7" width="41.375" customWidth="1"/>
+    <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:11">
       <c r="F2" s="5" t="s">
@@ -2604,14 +2360,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.250000">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -2622,15 +2378,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.250000">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="33.000000">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="33">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2665,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="49.500000">
+    <row r="8" spans="1:11" ht="49.5">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -2691,7 +2447,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="33.000000">
+    <row r="9" spans="1:11" ht="33">
       <c r="A9" s="11" t="s">
         <v>35</v>
       </c>
@@ -2715,7 +2471,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="49.500000">
+    <row r="10" spans="1:11" ht="49.5">
       <c r="A10" s="11" t="s">
         <v>212</v>
       </c>
@@ -2763,7 +2519,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="33.000000">
+    <row r="12" spans="1:11" ht="33">
       <c r="A12" s="11" t="s">
         <v>214</v>
       </c>
@@ -2802,7 +2558,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>194</v>
@@ -2811,7 +2567,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="33.000000">
+    <row r="14" spans="1:11" ht="33">
       <c r="A14" s="11" t="s">
         <v>216</v>
       </c>
@@ -2835,7 +2591,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="33.000000">
+    <row r="15" spans="1:11" ht="33">
       <c r="A15" s="11" t="s">
         <v>217</v>
       </c>
@@ -2850,7 +2606,7 @@
         <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>199</v>
@@ -2859,7 +2615,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="49.500000">
+    <row r="16" spans="1:11" ht="49.5">
       <c r="A16" s="11" t="s">
         <v>218</v>
       </c>
@@ -2883,7 +2639,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="33.000000">
+    <row r="17" spans="1:11" ht="33">
       <c r="A17" s="11" t="s">
         <v>219</v>
       </c>
@@ -2907,7 +2663,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="49.500000">
+    <row r="18" spans="1:11" ht="49.5">
       <c r="A18" s="11" t="s">
         <v>220</v>
       </c>
@@ -2931,7 +2687,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="33.000000">
+    <row r="19" spans="1:11" ht="33">
       <c r="A19" s="11" t="s">
         <v>221</v>
       </c>
@@ -2957,7 +2713,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="33.000000">
+    <row r="20" spans="1:11" ht="33">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
@@ -2990,7 +2746,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="49.500000">
+    <row r="21" spans="1:11" ht="49.5">
       <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
@@ -3023,7 +2779,7 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="33.000000">
+    <row r="22" spans="1:11" ht="33">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -3056,7 +2812,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="33.000000">
+    <row r="23" spans="1:11" ht="33">
       <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
@@ -3089,7 +2845,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="33.000000">
+    <row r="24" spans="1:11" ht="33">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
@@ -3122,7 +2878,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="33.000000">
+    <row r="25" spans="1:11" ht="33">
       <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
@@ -3147,7 +2903,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="49.500000">
+    <row r="26" spans="1:11" ht="49.5">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -3170,7 +2926,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="33.000000">
+    <row r="27" spans="1:11" ht="33">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
@@ -3193,7 +2949,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="33.000000">
+    <row r="28" spans="1:11" ht="33">
       <c r="A28" s="7" t="s">
         <v>110</v>
       </c>
@@ -3216,7 +2972,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="33.000000">
+    <row r="29" spans="1:11" ht="33">
       <c r="A29" s="10" t="s">
         <v>111</v>
       </c>
@@ -3239,7 +2995,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="49.500000">
+    <row r="30" spans="1:11" ht="49.5">
       <c r="A30" s="7" t="s">
         <v>112</v>
       </c>
@@ -3262,7 +3018,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="49.500000">
+    <row r="31" spans="1:11" ht="49.5">
       <c r="A31" s="10" t="s">
         <v>113</v>
       </c>
@@ -3285,7 +3041,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="33.000000">
+    <row r="32" spans="1:11" ht="33">
       <c r="A32" s="7" t="s">
         <v>114</v>
       </c>
@@ -3308,7 +3064,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="33.000000">
+    <row r="33" spans="1:11" ht="33">
       <c r="A33" s="10" t="s">
         <v>115</v>
       </c>
@@ -3333,7 +3089,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="33.000000">
+    <row r="34" spans="1:11" ht="33">
       <c r="A34" s="7" t="s">
         <v>116</v>
       </c>
@@ -3356,7 +3112,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="33.000000">
+    <row r="35" spans="1:11" ht="33">
       <c r="A35" s="10" t="s">
         <v>117</v>
       </c>
@@ -3379,7 +3135,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="66.000000">
+    <row r="36" spans="1:11" ht="66">
       <c r="A36" s="8" t="s">
         <v>119</v>
       </c>
@@ -3402,7 +3158,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="66.000000">
+    <row r="37" spans="1:11" ht="66">
       <c r="A37" s="8" t="s">
         <v>118</v>
       </c>
@@ -3425,7 +3181,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="33.000000">
+    <row r="38" spans="1:11" ht="33">
       <c r="A38" s="8" t="s">
         <v>142</v>
       </c>
@@ -3448,7 +3204,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="33.000000">
+    <row r="39" spans="1:11" ht="33">
       <c r="A39" s="8" t="s">
         <v>143</v>
       </c>
@@ -3471,7 +3227,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="33.000000">
+    <row r="40" spans="1:11" ht="33">
       <c r="A40" s="8" t="s">
         <v>144</v>
       </c>
@@ -3494,7 +3250,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="33.000000">
+    <row r="41" spans="1:11" ht="33">
       <c r="A41" s="8" t="s">
         <v>145</v>
       </c>
@@ -3517,7 +3273,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="33.000000">
+    <row r="42" spans="1:11" ht="33">
       <c r="A42" s="8" t="s">
         <v>146</v>
       </c>
@@ -3540,7 +3296,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="33.000000">
+    <row r="43" spans="1:11" ht="33">
       <c r="A43" s="8" t="s">
         <v>147</v>
       </c>
@@ -3563,7 +3319,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="66.000000">
+    <row r="44" spans="1:11" ht="66">
       <c r="A44" s="8" t="s">
         <v>148</v>
       </c>
@@ -3586,7 +3342,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="33.000000">
+    <row r="45" spans="1:11" ht="33">
       <c r="A45" s="8" t="s">
         <v>149</v>
       </c>
@@ -3648,7 +3404,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="33.000000">
+    <row r="51" spans="1:7" ht="33">
       <c r="A51" s="6" t="s">
         <v>22</v>
       </c>
@@ -3671,7 +3427,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="33.000000">
+    <row r="52" spans="1:7" ht="33">
       <c r="A52" s="6" t="s">
         <v>177</v>
       </c>
@@ -3694,7 +3450,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="132.000000">
+    <row r="53" spans="1:7" ht="132">
       <c r="A53" s="6" t="s">
         <v>178</v>
       </c>
@@ -3717,7 +3473,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="49.500000">
+    <row r="54" spans="1:7" ht="49.5">
       <c r="A54" s="6" t="s">
         <v>179</v>
       </c>
@@ -3762,7 +3518,7 @@
       <c r="A61" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:N7"/>
+  <autoFilter ref="A7:N7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A5:E5"/>
@@ -3771,9 +3527,9 @@
   <conditionalFormatting sqref="A8:A19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0.000000"/>
-        <cfvo type="percentile" val="50.000000"/>
-        <cfvo type="max" val="0.000000"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3783,9 +3539,9 @@
   <conditionalFormatting sqref="F2">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0.000000"/>
-        <cfvo type="percentile" val="50.000000"/>
-        <cfvo type="max" val="0.000000"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3793,42 +3549,42 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink location="Product!A3" display="FAIL" ref="I20"/>
-    <hyperlink location="Product!A6" display="PASS" ref="I22"/>
-    <hyperlink location="Product!A5" display="PASS" ref="I21"/>
-    <hyperlink location="Product!A7" display="PASS" ref="I23"/>
-    <hyperlink location="Product!A8" display="PASS" ref="I24"/>
+    <hyperlink ref="I20" location="Product!A3" display="FAIL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I22" location="Product!A6" display="PASS" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I21" location="Product!A5" display="PASS" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I23" location="Product!A7" display="PASS" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I24" location="Product!A8" display="PASS" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="26.25499916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="43.13000107" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="8.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="7.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="16.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" width="6.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="32.88000107" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" width="36.75500107" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="11" width="32.75500107" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="32.875" customWidth="1"/>
+    <col min="10" max="10" width="36.75" customWidth="1"/>
+    <col min="11" max="11" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="33.000000">
+    <row r="2" spans="1:11" ht="33">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -3839,7 +3595,7 @@
         <v>222</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>161</v>
@@ -3863,7 +3619,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="49.500000">
+    <row r="3" spans="1:11" ht="49.5">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -3878,7 +3634,7 @@
         <v>232</v>
       </c>
       <c r="F3" s="18">
-        <v>45728.8048611111</v>
+        <v>45728.804861111101</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>227</v>
@@ -3894,7 +3650,7 @@
       </c>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="33.000000">
+    <row r="4" spans="1:11" ht="33">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -3909,7 +3665,7 @@
         <v>232</v>
       </c>
       <c r="F4" s="18">
-        <v>45728.8090277778</v>
+        <v>45728.809027777803</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>227</v>
@@ -3925,7 +3681,7 @@
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" ht="49.500000">
+    <row r="5" spans="1:11" ht="132">
       <c r="A5" s="11" t="s">
         <v>212</v>
       </c>
@@ -3933,212 +3689,218 @@
         <v>185</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>186</v>
+        <v>305</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F5" s="18">
-        <v>45728.8194444444</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>60</v>
+        <v>45734.868750000001</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="J5" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33">
+      <c r="A6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="132.000000">
-      <c r="A6" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F6" s="18">
-        <v>45734.86875</v>
+        <v>45728.845138888901</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="33.000000">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="33">
       <c r="A7" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>257</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F7" s="18">
-        <v>45728.8451388889</v>
+        <v>45733.8125</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="33">
+      <c r="A8" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="33.000000">
-      <c r="A8" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>262</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F8" s="18">
-        <v>45733.8125</v>
+        <v>45728.848611111098</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="33.000000">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="49.5">
       <c r="A9" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F9" s="18">
-        <v>45728.8486111111</v>
+        <v>45728.853472222203</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="49.500000">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33">
       <c r="A10" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>257</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F10" s="18">
-        <v>45728.8534722222</v>
+        <v>45733.8125</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="33.000000">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="49.5">
       <c r="A11" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>262</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F11" s="18">
-        <v>45733.8125</v>
+        <v>45728.859027777798</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>59</v>
+        <v>240</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="49.500000">
+        <v>247</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="49.5">
       <c r="A12" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>206</v>
@@ -4151,7 +3913,7 @@
         <v>232</v>
       </c>
       <c r="F12" s="18">
-        <v>45728.8590277778</v>
+        <v>45729.814583333296</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>242</v>
@@ -4160,16 +3922,16 @@
         <v>60</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="49.500000">
+    <row r="13" spans="1:11" ht="49.5">
       <c r="A13" s="11" t="s">
         <v>220</v>
       </c>
@@ -4184,7 +3946,7 @@
         <v>232</v>
       </c>
       <c r="F13" s="18">
-        <v>45729.8145833333</v>
+        <v>45729.815277777801</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>244</v>
@@ -4193,18 +3955,18 @@
         <v>60</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="49.500000">
+    <row r="14" spans="1:11" ht="49.5">
       <c r="A14" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>206</v>
@@ -4217,27 +3979,27 @@
         <v>232</v>
       </c>
       <c r="F14" s="18">
-        <v>45729.8152777778</v>
+        <v>45729.819444444402</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="49.500000">
+    </row>
+    <row r="15" spans="1:11" ht="49.5">
       <c r="A15" s="11" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>206</v>
@@ -4250,517 +4012,651 @@
         <v>232</v>
       </c>
       <c r="F15" s="18">
-        <v>45729.8194444444</v>
+        <v>45729.822222222203</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="49.500000">
-      <c r="A16" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="F16" s="18">
-        <v>45729.8222222222</v>
+      <c r="F16" s="33">
+        <v>45730.8</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F17" s="18">
-        <v>45730.8</v>
-      </c>
+      <c r="I16" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" ht="66">
+      <c r="A17" s="36"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="66.000000">
-      <c r="A18" s="11"/>
-      <c r="B18" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" ht="33">
+      <c r="A18" s="36"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="18"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="33.000000">
-      <c r="A19" s="11"/>
-      <c r="B19" s="2"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" ht="49.5">
+      <c r="A19" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="18"/>
+        <v>290</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="18">
+        <v>45733.866666666698</v>
+      </c>
       <c r="G19" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" s="33">
+        <v>45735.854166666664</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="49.500000">
-      <c r="A20" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="H20" s="38"/>
+      <c r="I20" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:11" ht="33">
+      <c r="A21" s="36"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="1:11" ht="198">
+      <c r="A22" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F20" s="18">
-        <v>45733.8666666667</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F22" s="28">
+        <v>45736.822916666664</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="198">
+      <c r="A23" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="33.000000">
-      <c r="A22" s="11"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="49.500000">
-      <c r="A23" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="28">
+        <v>45736.822916666664</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" ht="409.5">
+      <c r="A24" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="49.500000">
-      <c r="A24" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="28">
+        <v>45750.831944444442</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="409.5">
+      <c r="A25" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="33.000000">
-      <c r="A25" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="28">
+        <v>45750.84375</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="1:11" ht="264">
+      <c r="A26" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="198.000000">
-      <c r="C26" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="F26" s="28">
+        <v>45753.981249999997</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="231">
+      <c r="A27" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="28">
+        <v>45753.998611111114</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
+  <mergeCells count="16">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A17 A23:A25 A20:A21">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="A19:A20 A3:A16 A22:A27">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0.000000"/>
-        <cfvo type="percentile" val="50.000000"/>
-        <cfvo type="max" val="0.000000"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.50499916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="12.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="22.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="31.87999916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="101.87999725" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="19.50499916" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="23.12999916" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" width="14.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="101.875" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="17.250000">
-      <c r="A2" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="23" t="s">
+    <row r="2" spans="1:7" ht="17.25">
+      <c r="A2" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="198">
+      <c r="A3" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E3" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="198.000000">
-      <c r="A3" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="F3" s="21">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="231">
+      <c r="A4" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="21">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="409.5">
+      <c r="A5" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" s="22">
-        <v>45729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="231.000000">
-      <c r="B4" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="C5" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="21">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="214.5">
+      <c r="A6" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="21">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="214.5">
+      <c r="A7" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="21">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.5">
+      <c r="A8" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="F4" s="22">
-        <v>45730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="409.500000">
-      <c r="B5" s="27" t="s">
+      <c r="D8" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C5" s="27" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="409.5">
+      <c r="A9" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.5">
+      <c r="A10" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.5">
+      <c r="A11" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" s="22">
-        <v>45731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="214.500000">
-      <c r="B6" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="22">
-        <v>45731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="214.500000">
-      <c r="B7" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="F7" s="22">
-        <v>45731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="409.500000">
-      <c r="B8" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="27" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="409.5">
+      <c r="A12" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
         <v>303</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="409.500000">
-      <c r="B9" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="409.500000">
-      <c r="B10" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="409.500000">
-      <c r="B11" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="409.500000">
-      <c r="B12" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>313</v>
+      <c r="D12" s="24" t="s">
+        <v>322</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>308</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="132">
+      <c r="A13" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="A3:A13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0.000000"/>
-        <cfvo type="percentile" val="50.000000"/>
-        <cfvo type="max" val="0.000000"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/TestCase/TestCaseCEW.xlsx
+++ b/TestCase/TestCaseCEW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0799383-0AE5-4752-BF46-CBE1489F2019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3BD62A-29C0-4CCE-97A9-E51ECDDE7887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="1350" windowWidth="23880" windowHeight="13665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="354">
   <si>
     <t>입력값</t>
   </si>
@@ -138,16 +138,10 @@
     <t>고객 기본 정보 관리</t>
   </si>
   <si>
-    <t>고객 등급 및 로열티 프로그램 관리</t>
-  </si>
-  <si>
     <t>고객 주문 이력</t>
   </si>
   <si>
     <t>고객 상담 및 피드백 관리</t>
-  </si>
-  <si>
-    <t>고객 리뷰 관리</t>
   </si>
   <si>
     <t>상품 등록 및 관리</t>
@@ -600,33 +594,12 @@
     <t>특정 고객의 주문 내역을 기간별로 조회한다.</t>
   </si>
   <si>
-    <t>SELECT * FROM Orders WHERE customer_id = 1 AND order_date BETWEEN '2025-01-01' AND '2025-03-10';</t>
-  </si>
-  <si>
     <t>해당 기간의 주문 내역만 조회된다.</t>
   </si>
   <si>
-    <t>존재하지 않는 주문 ID로 조회를 시도한다.</t>
-  </si>
-  <si>
-    <t>SELECT * FROM Orders WHERE order_id = 9999;</t>
-  </si>
-  <si>
-    <t>누적 결제 금액에 따라 고객 등급이 자동으로 변경된다.</t>
-  </si>
-  <si>
-    <t>UPDATE Grade SET accumulated_amount = 1000000 WHERE customer_id = 1;</t>
-  </si>
-  <si>
-    <t>누적 금액에 따라 'VIP' 등급으로 변경됨</t>
-  </si>
-  <si>
     <t>특정 고객의 상담 내역을 조회한다.</t>
   </si>
   <si>
-    <t>해당 고객의 상담 내역이 모두 조회된다.</t>
-  </si>
-  <si>
     <t>상담이 답변 완료 상태일 때 삭제를 시도한다.</t>
   </si>
   <si>
@@ -667,15 +640,6 @@
   </si>
   <si>
     <t>상태별 상담 접수 건수가 올바르게 집계됨</t>
-  </si>
-  <si>
-    <t>별점이 1~5 범위를 벗어난 경우 오류가 발생한다.</t>
-  </si>
-  <si>
-    <t>INSERT INTO Review (customer_id, product_id, star, content) VALUES (1, 10, 6, '별점 초과');</t>
-  </si>
-  <si>
-    <t>"별점은 1에서 5 사이여야 합니다." 오류</t>
   </si>
   <si>
     <t>TC-CM-003</t>
@@ -1555,6 +1519,44 @@
   </si>
   <si>
     <t>TC-CM-022</t>
+  </si>
+  <si>
+    <t>TC-CM-014</t>
+  </si>
+  <si>
+    <t>TC-CM-015</t>
+  </si>
+  <si>
+    <t>TC-CM-009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-CM-010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-CM-011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-CM-012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-CM-013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소멸기간 지난 포인트가 자동으로 Expired 타입으로 전환됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 등급 및 로열티 프로그램 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 리뷰 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1864,7 +1866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1981,6 +1983,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -2309,11 +2326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2375,7 +2392,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2383,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="33">
@@ -2397,10 +2414,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>0</v>
@@ -2409,13 +2426,13 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>1</v>
@@ -2432,19 +2449,26 @@
         <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="J8" s="1"/>
+      <c r="H8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="33">
@@ -2456,1086 +2480,1305 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="J9" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="49.5">
+    <row r="10" spans="1:11" ht="132">
       <c r="A10" s="11" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="33">
       <c r="A11" s="11" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>58</v>
+        <v>185</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="J11" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="33">
       <c r="A12" s="11" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="33">
       <c r="A13" s="11" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="33">
+    <row r="14" spans="1:11" ht="49.5">
       <c r="A14" s="11" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>58</v>
+        <v>191</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="J14" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="33">
       <c r="A15" s="11" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="49.5">
-      <c r="A16" s="11" t="s">
-        <v>218</v>
+      <c r="A16" s="40" t="s">
+        <v>346</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A17" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="66">
+      <c r="A18" s="36"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="33">
+      <c r="A19" s="36"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="49.5">
+      <c r="A20" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="33">
+      <c r="A22" s="36"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="181.5">
+      <c r="A23" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="409.5">
+      <c r="A24" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="231">
+      <c r="A25" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="33">
+      <c r="A26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="49.5">
+      <c r="A27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I27" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="33">
-      <c r="A17" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="49.5">
-      <c r="A18" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="33">
-      <c r="A19" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="33">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="49.5">
-      <c r="A21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="33">
-      <c r="A22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="33">
-      <c r="A23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="33">
-      <c r="A24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="33">
-      <c r="A25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="49.5">
-      <c r="A26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="33">
-      <c r="A27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33">
       <c r="A28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I28" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="33">
       <c r="A29" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="49.5">
+    <row r="30" spans="1:11" ht="33">
       <c r="A30" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="49.5">
+    <row r="31" spans="1:11" ht="33">
       <c r="A31" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="33">
+    <row r="32" spans="1:11" ht="49.5">
       <c r="A32" s="7" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="33">
       <c r="A33" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>58</v>
+        <v>94</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="33">
       <c r="A34" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>58</v>
+        <v>95</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="33">
       <c r="A35" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="66">
-      <c r="A36" s="8" t="s">
-        <v>119</v>
+    <row r="36" spans="1:11" ht="49.5">
+      <c r="A36" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="66">
-      <c r="A37" s="8" t="s">
-        <v>118</v>
+    <row r="37" spans="1:11" ht="49.5">
+      <c r="A37" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>125</v>
+        <v>97</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="33">
-      <c r="A38" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>126</v>
+        <v>82</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="33">
-      <c r="A39" s="8" t="s">
-        <v>143</v>
+      <c r="A39" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="33">
+      <c r="A40" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="33">
+      <c r="A41" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="66">
+      <c r="A42" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="66">
+      <c r="A43" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="33">
-      <c r="A40" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="33">
-      <c r="A41" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="33">
-      <c r="A42" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="17" t="s">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="33">
+      <c r="A44" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="33">
-      <c r="A43" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="66">
-      <c r="A44" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="33">
       <c r="A45" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="33">
+      <c r="A46" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="33">
+      <c r="A47" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="33">
+      <c r="A48" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="33">
+      <c r="A49" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="66">
+      <c r="A50" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="33">
+      <c r="A51" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="9" t="s">
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="9"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="9"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="9"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="9"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="9"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" s="9"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="9"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="9"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="33">
-      <c r="A51" s="6" t="s">
+    <row r="57" spans="1:7" ht="33">
+      <c r="A57" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="17" t="s">
+    </row>
+    <row r="58" spans="1:7" ht="33">
+      <c r="A58" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="E58" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="17" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="33">
-      <c r="A52" s="6" t="s">
+      <c r="G58" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="132">
+      <c r="A59" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="49.5">
+      <c r="A60" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="132">
-      <c r="A53" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="17" t="s">
+      <c r="C60" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="49.5">
-      <c r="A54" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="E60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
     </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A7:N7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="2">
+  <mergeCells count="18">
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A8:A19">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F2">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -3548,12 +3791,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A17 A20 A23:A25">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I20" location="Product!A3" display="FAIL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I22" location="Product!A6" display="PASS" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I21" location="Product!A5" display="PASS" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I23" location="Product!A7" display="PASS" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I24" location="Product!A8" display="PASS" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I26" location="Product!A3" display="FAIL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I28" location="Product!A6" display="PASS" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I27" location="Product!A5" display="PASS" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I29" location="Product!A7" display="PASS" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I30" location="Product!A8" display="PASS" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3566,7 +3821,7 @@
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3586,37 +3841,37 @@
   <sheetData>
     <row r="2" spans="1:11" ht="33">
       <c r="A2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="49.5">
@@ -3624,29 +3879,29 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F3" s="18">
         <v>45728.804861111101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K3" s="17"/>
     </row>
@@ -3655,409 +3910,409 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F4" s="18">
         <v>45728.809027777803</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="132">
       <c r="A5" s="11" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F5" s="18">
         <v>45734.868750000001</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33">
       <c r="A6" s="11" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F6" s="18">
         <v>45728.845138888901</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="33">
       <c r="A7" s="11" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F7" s="18">
         <v>45733.8125</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="33">
       <c r="A8" s="11" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F8" s="18">
         <v>45728.848611111098</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="49.5">
       <c r="A9" s="11" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F9" s="18">
         <v>45728.853472222203</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="33">
       <c r="A10" s="11" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F10" s="18">
         <v>45733.8125</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="49.5">
       <c r="A11" s="11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F11" s="18">
         <v>45728.859027777798</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="49.5">
       <c r="A12" s="11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F12" s="18">
         <v>45729.814583333296</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="49.5">
       <c r="A13" s="11" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F13" s="18">
         <v>45729.815277777801</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="49.5">
       <c r="A14" s="11" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F14" s="18">
         <v>45729.819444444402</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5">
       <c r="A15" s="11" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F15" s="18">
         <v>45729.822222222203</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>59</v>
+        <v>239</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="35" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F16" s="33">
         <v>45730.8</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="K16" s="34"/>
     </row>
@@ -4065,13 +4320,13 @@
       <c r="A17" s="36"/>
       <c r="B17" s="34"/>
       <c r="C17" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="34"/>
       <c r="F17" s="33"/>
       <c r="G17" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H17" s="38"/>
       <c r="I17" s="34"/>
@@ -4082,13 +4337,13 @@
       <c r="A18" s="36"/>
       <c r="B18" s="34"/>
       <c r="C18" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="34"/>
       <c r="F18" s="33"/>
       <c r="G18" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="34"/>
@@ -4097,62 +4352,67 @@
     </row>
     <row r="19" spans="1:11" ht="49.5">
       <c r="A19" s="5" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F19" s="18">
         <v>45733.866666666698</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>271</v>
+        <v>216</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>351</v>
       </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="35" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F20" s="33">
         <v>45735.854166666664</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20" s="38"/>
+        <v>215</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="I20" s="34" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="K20" s="37"/>
     </row>
@@ -4160,13 +4420,13 @@
       <c r="A21" s="36"/>
       <c r="B21" s="34"/>
       <c r="C21" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="34"/>
       <c r="F21" s="33"/>
       <c r="G21" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="34"/>
@@ -4175,187 +4435,187 @@
     </row>
     <row r="22" spans="1:11" ht="198">
       <c r="A22" s="30" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F22" s="28">
         <v>45736.822916666664</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="198">
       <c r="A23" s="30" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F23" s="28">
         <v>45736.822916666664</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" ht="409.5">
       <c r="A24" s="30" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F24" s="28">
         <v>45750.831944444442</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="409.5">
       <c r="A25" s="30" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F25" s="28">
         <v>45750.84375</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="K25" s="27"/>
     </row>
     <row r="26" spans="1:11" ht="264">
       <c r="A26" s="30" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F26" s="28">
         <v>45753.981249999997</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="231">
       <c r="A27" s="30" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F27" s="28">
         <v>45753.998611111114</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K27" s="29"/>
     </row>
@@ -4365,6 +4625,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H20:H21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="J16:J18"/>
@@ -4375,7 +4636,6 @@
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:K21"/>
-    <mergeCell ref="H19:H21"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="E16:E18"/>
@@ -4404,7 +4664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4422,42 +4682,42 @@
   <sheetData>
     <row r="2" spans="1:7" ht="17.25">
       <c r="A2" s="22" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="198">
       <c r="A3" s="11" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F3" s="21">
         <v>45729</v>
@@ -4465,19 +4725,19 @@
     </row>
     <row r="4" spans="1:7" ht="231">
       <c r="A4" s="11" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F4" s="21">
         <v>45730</v>
@@ -4485,16 +4745,16 @@
     </row>
     <row r="5" spans="1:7" ht="409.5">
       <c r="A5" s="11" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F5" s="21">
         <v>45731</v>
@@ -4502,19 +4762,19 @@
     </row>
     <row r="6" spans="1:7" ht="214.5">
       <c r="A6" s="11" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F6" s="21">
         <v>45731</v>
@@ -4522,19 +4782,19 @@
     </row>
     <row r="7" spans="1:7" ht="214.5">
       <c r="A7" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F7" s="21">
         <v>45731</v>
@@ -4542,104 +4802,104 @@
     </row>
     <row r="8" spans="1:7" ht="409.5">
       <c r="A8" s="11" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="409.5">
       <c r="A9" s="11" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="409.5">
       <c r="A10" s="11" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="409.5">
       <c r="A11" s="11" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="409.5">
       <c r="A12" s="11" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="132">
       <c r="A13" s="11" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
